--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -5477,28 +5477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3676.494601927102</v>
+        <v>3935.239613227892</v>
       </c>
       <c r="AB2" t="n">
-        <v>5030.342109851603</v>
+        <v>5384.368449337631</v>
       </c>
       <c r="AC2" t="n">
-        <v>4550.253319016668</v>
+        <v>4870.491881541224</v>
       </c>
       <c r="AD2" t="n">
-        <v>3676494.601927102</v>
+        <v>3935239.613227892</v>
       </c>
       <c r="AE2" t="n">
-        <v>5030342.109851602</v>
+        <v>5384368.449337631</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.341645843766494e-07</v>
+        <v>7.700860726317432e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.89814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>4550253.319016668</v>
+        <v>4870491.881541224</v>
       </c>
     </row>
     <row r="3">
@@ -5583,28 +5583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2182.838320717671</v>
+        <v>2363.883111367663</v>
       </c>
       <c r="AB3" t="n">
-        <v>2986.655690436111</v>
+        <v>3234.369160136077</v>
       </c>
       <c r="AC3" t="n">
-        <v>2701.613463138478</v>
+        <v>2925.685506958195</v>
       </c>
       <c r="AD3" t="n">
-        <v>2182838.320717671</v>
+        <v>2363883.111367663</v>
       </c>
       <c r="AE3" t="n">
-        <v>2986655.690436111</v>
+        <v>3234369.160136077</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.544792467952952e-07</v>
+        <v>1.087705881371313e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.28356481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>2701613.463138477</v>
+        <v>2925685.506958195</v>
       </c>
     </row>
     <row r="4">
@@ -5689,28 +5689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1858.881631449381</v>
+        <v>2014.197000422063</v>
       </c>
       <c r="AB4" t="n">
-        <v>2543.403856218784</v>
+        <v>2755.913196077694</v>
       </c>
       <c r="AC4" t="n">
-        <v>2300.664961870994</v>
+        <v>2492.892708592502</v>
       </c>
       <c r="AD4" t="n">
-        <v>1858881.631449381</v>
+        <v>2014197.000422064</v>
       </c>
       <c r="AE4" t="n">
-        <v>2543403.856218784</v>
+        <v>2755913.196077695</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.41082078339597e-07</v>
+        <v>1.212558101779311e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.13425925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>2300664.961870994</v>
+        <v>2492892.708592502</v>
       </c>
     </row>
     <row r="5">
@@ -5795,28 +5795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1707.757748418173</v>
+        <v>1854.439749595371</v>
       </c>
       <c r="AB5" t="n">
-        <v>2336.629492340307</v>
+        <v>2537.32627750413</v>
       </c>
       <c r="AC5" t="n">
-        <v>2113.624853071437</v>
+        <v>2295.167418738933</v>
       </c>
       <c r="AD5" t="n">
-        <v>1707757.748418173</v>
+        <v>1854439.749595372</v>
       </c>
       <c r="AE5" t="n">
-        <v>2336629.492340307</v>
+        <v>2537326.27750413</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.88978853578168e-07</v>
+        <v>1.28160917819659e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.18981481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>2113624.853071437</v>
+        <v>2295167.418738933</v>
       </c>
     </row>
     <row r="6">
@@ -5901,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1624.832295190026</v>
+        <v>1771.428955512653</v>
       </c>
       <c r="AB6" t="n">
-        <v>2223.167228820757</v>
+        <v>2423.747246862384</v>
       </c>
       <c r="AC6" t="n">
-        <v>2010.991268736906</v>
+        <v>2192.428211372463</v>
       </c>
       <c r="AD6" t="n">
-        <v>1624832.295190026</v>
+        <v>1771428.955512653</v>
       </c>
       <c r="AE6" t="n">
-        <v>2223167.228820757</v>
+        <v>2423747.246862384</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.173913046791184e-07</v>
+        <v>1.32257039786956e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.13078703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>2010991.268736906</v>
+        <v>2192428.211372463</v>
       </c>
     </row>
     <row r="7">
@@ -6007,28 +6007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1563.080435906422</v>
+        <v>1709.591755374478</v>
       </c>
       <c r="AB7" t="n">
-        <v>2138.67561064917</v>
+        <v>2339.138861568599</v>
       </c>
       <c r="AC7" t="n">
-        <v>1934.563412018885</v>
+        <v>2115.894731622503</v>
       </c>
       <c r="AD7" t="n">
-        <v>1563080.435906422</v>
+        <v>1709591.755374477</v>
       </c>
       <c r="AE7" t="n">
-        <v>2138675.61064917</v>
+        <v>2339138.861568599</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.379785150886795e-07</v>
+        <v>1.352250246505057e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.40162037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1934563.412018885</v>
+        <v>2115894.731622503</v>
       </c>
     </row>
     <row r="8">
@@ -6113,28 +6113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1513.664393550851</v>
+        <v>1660.260964364927</v>
       </c>
       <c r="AB8" t="n">
-        <v>2071.062401416351</v>
+        <v>2271.642296988429</v>
       </c>
       <c r="AC8" t="n">
-        <v>1873.403112579511</v>
+        <v>2054.839944433841</v>
       </c>
       <c r="AD8" t="n">
-        <v>1513664.393550851</v>
+        <v>1660260.964364927</v>
       </c>
       <c r="AE8" t="n">
-        <v>2071062.401416351</v>
+        <v>2271642.296988429</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.52893738956831e-07</v>
+        <v>1.373752993985877e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.89814814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>1873403.112579511</v>
+        <v>2054839.944433841</v>
       </c>
     </row>
     <row r="9">
@@ -6219,28 +6219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1484.958515499726</v>
+        <v>1623.092400227461</v>
       </c>
       <c r="AB9" t="n">
-        <v>2031.785752652841</v>
+        <v>2220.786627774228</v>
       </c>
       <c r="AC9" t="n">
-        <v>1837.874972048867</v>
+        <v>2008.837868913063</v>
       </c>
       <c r="AD9" t="n">
-        <v>1484958.515499725</v>
+        <v>1623092.400227461</v>
       </c>
       <c r="AE9" t="n">
-        <v>2031785.752652841</v>
+        <v>2220786.627774228</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.630823073738077e-07</v>
+        <v>1.388441490504465e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.55671296296297</v>
       </c>
       <c r="AH9" t="n">
-        <v>1837874.972048867</v>
+        <v>2008837.868913063</v>
       </c>
     </row>
     <row r="10">
@@ -6325,28 +6325,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1456.353714806949</v>
+        <v>1594.317007334092</v>
       </c>
       <c r="AB10" t="n">
-        <v>1992.647402390242</v>
+        <v>2181.414865736781</v>
       </c>
       <c r="AC10" t="n">
-        <v>1802.471931004311</v>
+        <v>1973.223692585855</v>
       </c>
       <c r="AD10" t="n">
-        <v>1456353.714806949</v>
+        <v>1594317.007334092</v>
       </c>
       <c r="AE10" t="n">
-        <v>1992647.402390242</v>
+        <v>2181414.865736781</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.725881366700594e-07</v>
+        <v>1.402145706328508e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>31.25</v>
       </c>
       <c r="AH10" t="n">
-        <v>1802471.93100431</v>
+        <v>1973223.692585855</v>
       </c>
     </row>
     <row r="11">
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1435.352130909868</v>
+        <v>1573.315423437013</v>
       </c>
       <c r="AB11" t="n">
-        <v>1963.912108777767</v>
+        <v>2152.679572124306</v>
       </c>
       <c r="AC11" t="n">
-        <v>1776.479093483972</v>
+        <v>1947.230855065517</v>
       </c>
       <c r="AD11" t="n">
-        <v>1435352.130909869</v>
+        <v>1573315.423437013</v>
       </c>
       <c r="AE11" t="n">
-        <v>1963912.108777767</v>
+        <v>2152679.572124306</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.787327887565863e-07</v>
+        <v>1.411004232579409e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>32</v>
+        <v>31.05324074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>1776479.093483972</v>
+        <v>1947230.855065517</v>
       </c>
     </row>
     <row r="12">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1403.941769351159</v>
+        <v>1541.990313224323</v>
       </c>
       <c r="AB12" t="n">
-        <v>1920.935066365788</v>
+        <v>2109.819174364977</v>
       </c>
       <c r="AC12" t="n">
-        <v>1737.603719681135</v>
+        <v>1908.460993513392</v>
       </c>
       <c r="AD12" t="n">
-        <v>1403941.769351159</v>
+        <v>1541990.313224324</v>
       </c>
       <c r="AE12" t="n">
-        <v>1920935.066365788</v>
+        <v>2109819.174364977</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.857177351455446e-07</v>
+        <v>1.421074181223596e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.83333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1737603.719681135</v>
+        <v>1908460.993513392</v>
       </c>
     </row>
     <row r="13">
@@ -6643,28 +6643,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1385.005701352048</v>
+        <v>1523.054245225213</v>
       </c>
       <c r="AB13" t="n">
-        <v>1895.025902729044</v>
+        <v>2083.910010728233</v>
       </c>
       <c r="AC13" t="n">
-        <v>1714.167290258143</v>
+        <v>1885.024564090399</v>
       </c>
       <c r="AD13" t="n">
-        <v>1385005.701352048</v>
+        <v>1523054.245225213</v>
       </c>
       <c r="AE13" t="n">
-        <v>1895025.902729044</v>
+        <v>2083910.010728233</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.898141698698961e-07</v>
+        <v>1.426979865390863e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.70601851851852</v>
       </c>
       <c r="AH13" t="n">
-        <v>1714167.290258143</v>
+        <v>1885024.564090399</v>
       </c>
     </row>
     <row r="14">
@@ -6749,28 +6749,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1365.342523005287</v>
+        <v>1503.391066878451</v>
       </c>
       <c r="AB14" t="n">
-        <v>1868.121874636799</v>
+        <v>2057.005982635989</v>
       </c>
       <c r="AC14" t="n">
-        <v>1689.830944846981</v>
+        <v>1860.688218679238</v>
       </c>
       <c r="AD14" t="n">
-        <v>1365342.523005287</v>
+        <v>1503391.066878451</v>
       </c>
       <c r="AE14" t="n">
-        <v>1868121.8746368</v>
+        <v>2057005.982635989</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.942782333515611e-07</v>
+        <v>1.433415546855193e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>31</v>
+        <v>30.56712962962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>1689830.944846981</v>
+        <v>1860688.218679238</v>
       </c>
     </row>
     <row r="15">
@@ -6855,28 +6855,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1352.068954631819</v>
+        <v>1489.946906304391</v>
       </c>
       <c r="AB15" t="n">
-        <v>1849.960392799713</v>
+        <v>2038.611089024055</v>
       </c>
       <c r="AC15" t="n">
-        <v>1673.402769346626</v>
+        <v>1844.048907896232</v>
       </c>
       <c r="AD15" t="n">
-        <v>1352068.954631819</v>
+        <v>1489946.906304391</v>
       </c>
       <c r="AE15" t="n">
-        <v>1849960.392799713</v>
+        <v>2038611.089024055</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.973768185917757e-07</v>
+        <v>1.437882666930433e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>31</v>
+        <v>30.47453703703704</v>
       </c>
       <c r="AH15" t="n">
-        <v>1673402.769346626</v>
+        <v>1844048.907896232</v>
       </c>
     </row>
     <row r="16">
@@ -6961,28 +6961,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1331.939084133247</v>
+        <v>1469.817035805819</v>
       </c>
       <c r="AB16" t="n">
-        <v>1822.417815916358</v>
+        <v>2011.0685121407</v>
       </c>
       <c r="AC16" t="n">
-        <v>1648.488817344768</v>
+        <v>1819.134955894375</v>
       </c>
       <c r="AD16" t="n">
-        <v>1331939.084133247</v>
+        <v>1469817.035805819</v>
       </c>
       <c r="AE16" t="n">
-        <v>1822417.815916358</v>
+        <v>2011068.5121407</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.000685477407598e-06</v>
+        <v>1.442652642603995e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>31</v>
+        <v>30.37037037037037</v>
       </c>
       <c r="AH16" t="n">
-        <v>1648488.817344768</v>
+        <v>1819134.955894375</v>
       </c>
     </row>
     <row r="17">
@@ -7067,28 +7067,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1312.634684470826</v>
+        <v>1442.049950057058</v>
       </c>
       <c r="AB17" t="n">
-        <v>1796.004684648226</v>
+        <v>1973.076360421877</v>
       </c>
       <c r="AC17" t="n">
-        <v>1624.596518253805</v>
+        <v>1784.768721813277</v>
       </c>
       <c r="AD17" t="n">
-        <v>1312634.684470826</v>
+        <v>1442049.950057058</v>
       </c>
       <c r="AE17" t="n">
-        <v>1796004.684648226</v>
+        <v>1973076.360421877</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.004466801768538e-06</v>
+        <v>1.448104043373781e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>31</v>
+        <v>30.25462962962963</v>
       </c>
       <c r="AH17" t="n">
-        <v>1624596.518253806</v>
+        <v>1784768.721813277</v>
       </c>
     </row>
     <row r="18">
@@ -7173,28 +7173,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1301.801934296283</v>
+        <v>1431.217199882515</v>
       </c>
       <c r="AB18" t="n">
-        <v>1781.182837952208</v>
+        <v>1958.254513725859</v>
       </c>
       <c r="AC18" t="n">
-        <v>1611.189247803863</v>
+        <v>1771.361451363334</v>
       </c>
       <c r="AD18" t="n">
-        <v>1301801.934296283</v>
+        <v>1431217.199882515</v>
       </c>
       <c r="AE18" t="n">
-        <v>1781182.837952208</v>
+        <v>1958254.513725859</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.005202059283165e-06</v>
+        <v>1.449164037967906e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>31</v>
+        <v>30.23726851851852</v>
       </c>
       <c r="AH18" t="n">
-        <v>1611189.247803863</v>
+        <v>1771361.451363334</v>
       </c>
     </row>
     <row r="19">
@@ -7279,28 +7279,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1289.072209864978</v>
+        <v>1418.48747545121</v>
       </c>
       <c r="AB19" t="n">
-        <v>1763.765467389489</v>
+        <v>1940.837143163141</v>
       </c>
       <c r="AC19" t="n">
-        <v>1595.434166642217</v>
+        <v>1755.606370201688</v>
       </c>
       <c r="AD19" t="n">
-        <v>1289072.209864978</v>
+        <v>1418487.47545121</v>
       </c>
       <c r="AE19" t="n">
-        <v>1763765.46738949</v>
+        <v>1940837.143163141</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.007985534159968e-06</v>
+        <v>1.453176874645664e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>31</v>
+        <v>30.15046296296297</v>
       </c>
       <c r="AH19" t="n">
-        <v>1595434.166642217</v>
+        <v>1755606.370201688</v>
       </c>
     </row>
     <row r="20">
@@ -7385,28 +7385,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1291.860831655282</v>
+        <v>1421.276097241514</v>
       </c>
       <c r="AB20" t="n">
-        <v>1767.580982748294</v>
+        <v>1944.652658521945</v>
       </c>
       <c r="AC20" t="n">
-        <v>1598.885534570287</v>
+        <v>1759.057738129758</v>
       </c>
       <c r="AD20" t="n">
-        <v>1291860.831655282</v>
+        <v>1421276.097241514</v>
       </c>
       <c r="AE20" t="n">
-        <v>1767580.982748294</v>
+        <v>1944652.658521945</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.007670423796556e-06</v>
+        <v>1.452722591248182e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>31</v>
+        <v>30.16203703703704</v>
       </c>
       <c r="AH20" t="n">
-        <v>1598885.534570287</v>
+        <v>1759057.738129758</v>
       </c>
     </row>
     <row r="21">
@@ -7491,28 +7491,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1295.10069202847</v>
+        <v>1424.515957614702</v>
       </c>
       <c r="AB21" t="n">
-        <v>1772.013902643442</v>
+        <v>1949.085578417093</v>
       </c>
       <c r="AC21" t="n">
-        <v>1602.895382812284</v>
+        <v>1763.067586371755</v>
       </c>
       <c r="AD21" t="n">
-        <v>1295100.69202847</v>
+        <v>1424515.957614702</v>
       </c>
       <c r="AE21" t="n">
-        <v>1772013.902643442</v>
+        <v>1949085.578417093</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.007092721463635e-06</v>
+        <v>1.451889738352798e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>31</v>
+        <v>30.17939814814815</v>
       </c>
       <c r="AH21" t="n">
-        <v>1602895.382812283</v>
+        <v>1763067.586371755</v>
       </c>
     </row>
   </sheetData>
@@ -7788,28 +7788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2755.349381200443</v>
+        <v>2974.031711921379</v>
       </c>
       <c r="AB2" t="n">
-        <v>3769.990580794267</v>
+        <v>4069.201393270208</v>
       </c>
       <c r="AC2" t="n">
-        <v>3410.187970978132</v>
+        <v>3680.842523456371</v>
       </c>
       <c r="AD2" t="n">
-        <v>2755349.381200443</v>
+        <v>2974031.711921379</v>
       </c>
       <c r="AE2" t="n">
-        <v>3769990.580794267</v>
+        <v>4069201.393270208</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.323958888528819e-07</v>
+        <v>9.25803791209485e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.71643518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>3410187.970978132</v>
+        <v>3680842.52345637</v>
       </c>
     </row>
     <row r="3">
@@ -7894,28 +7894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1795.215337659576</v>
+        <v>1955.146385204633</v>
       </c>
       <c r="AB3" t="n">
-        <v>2456.292824296921</v>
+        <v>2675.117539207924</v>
       </c>
       <c r="AC3" t="n">
-        <v>2221.867684574654</v>
+        <v>2419.808075816966</v>
       </c>
       <c r="AD3" t="n">
-        <v>1795215.337659576</v>
+        <v>1955146.385204633</v>
       </c>
       <c r="AE3" t="n">
-        <v>2456292.824296921</v>
+        <v>2675117.539207924</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.364576550497398e-07</v>
+        <v>1.224542540331721e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.58680555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2221867.684574654</v>
+        <v>2419808.075816966</v>
       </c>
     </row>
     <row r="4">
@@ -8000,28 +8000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1565.654223079714</v>
+        <v>1716.911914014604</v>
       </c>
       <c r="AB4" t="n">
-        <v>2142.197179807144</v>
+        <v>2349.154625562627</v>
       </c>
       <c r="AC4" t="n">
-        <v>1937.748887558975</v>
+        <v>2124.954605158154</v>
       </c>
       <c r="AD4" t="n">
-        <v>1565654.223079714</v>
+        <v>1716911.914014604</v>
       </c>
       <c r="AE4" t="n">
-        <v>2142197.179807144</v>
+        <v>2349154.625562627</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.140402434760211e-07</v>
+        <v>1.33812053121206e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.39814814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>1937748.887558975</v>
+        <v>2124954.605158154</v>
       </c>
     </row>
     <row r="5">
@@ -8106,28 +8106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1454.283707949242</v>
+        <v>1597.294567529722</v>
       </c>
       <c r="AB5" t="n">
-        <v>1989.81512768527</v>
+        <v>2185.488894957126</v>
       </c>
       <c r="AC5" t="n">
-        <v>1799.909964622059</v>
+        <v>1976.908902175347</v>
       </c>
       <c r="AD5" t="n">
-        <v>1454283.707949242</v>
+        <v>1597294.567529722</v>
       </c>
       <c r="AE5" t="n">
-        <v>1989815.12768527</v>
+        <v>2185488.894957127</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.541354467383431e-07</v>
+        <v>1.396818400448538e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.95138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1799909.964622059</v>
+        <v>1976908.902175347</v>
       </c>
     </row>
     <row r="6">
@@ -8212,28 +8212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1393.282834946619</v>
+        <v>1527.876360480647</v>
       </c>
       <c r="AB6" t="n">
-        <v>1906.351042074498</v>
+        <v>2090.507841557429</v>
       </c>
       <c r="AC6" t="n">
-        <v>1724.411574199399</v>
+        <v>1890.992707205371</v>
       </c>
       <c r="AD6" t="n">
-        <v>1393282.834946619</v>
+        <v>1527876.360480647</v>
       </c>
       <c r="AE6" t="n">
-        <v>1906351.042074498</v>
+        <v>2090507.841557429</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.797246618285241e-07</v>
+        <v>1.434280048701086e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.09490740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>1724411.574199399</v>
+        <v>1890992.707205371</v>
       </c>
     </row>
     <row r="7">
@@ -8318,28 +8318,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1342.391919755605</v>
+        <v>1477.070696635654</v>
       </c>
       <c r="AB7" t="n">
-        <v>1836.71984676143</v>
+        <v>2020.99329089701</v>
       </c>
       <c r="AC7" t="n">
-        <v>1661.425882439013</v>
+        <v>1828.112527695697</v>
       </c>
       <c r="AD7" t="n">
-        <v>1342391.919755605</v>
+        <v>1477070.696635654</v>
       </c>
       <c r="AE7" t="n">
-        <v>1836719.84676143</v>
+        <v>2020993.29089701</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.971644453613227e-07</v>
+        <v>1.459811235726709e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.52777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1661425.882439013</v>
+        <v>1828112.527695697</v>
       </c>
     </row>
     <row r="8">
@@ -8424,28 +8424,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1309.05560710643</v>
+        <v>1443.563791785886</v>
       </c>
       <c r="AB8" t="n">
-        <v>1791.10763310051</v>
+        <v>1975.147665461244</v>
       </c>
       <c r="AC8" t="n">
-        <v>1620.166834432748</v>
+        <v>1786.642344406781</v>
       </c>
       <c r="AD8" t="n">
-        <v>1309055.60710643</v>
+        <v>1443563.791785886</v>
       </c>
       <c r="AE8" t="n">
-        <v>1791107.63310051</v>
+        <v>1975147.665461244</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.009171274522533e-06</v>
+        <v>1.47738878193438e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.15740740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>1620166.834432748</v>
+        <v>1786642.344406781</v>
       </c>
     </row>
     <row r="9">
@@ -8530,28 +8530,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1269.269790124894</v>
+        <v>1403.863226150371</v>
       </c>
       <c r="AB9" t="n">
-        <v>1736.670923080005</v>
+        <v>1920.827600093388</v>
       </c>
       <c r="AC9" t="n">
-        <v>1570.925487614198</v>
+        <v>1737.506509838943</v>
       </c>
       <c r="AD9" t="n">
-        <v>1269269.790124894</v>
+        <v>1403863.226150371</v>
       </c>
       <c r="AE9" t="n">
-        <v>1736670.923080005</v>
+        <v>1920827.600093388</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.01884193330396e-06</v>
+        <v>1.491546262590333e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.85648148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>1570925.487614198</v>
+        <v>1737506.509838943</v>
       </c>
     </row>
     <row r="10">
@@ -8636,28 +8636,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1245.151529387179</v>
+        <v>1379.744965412656</v>
       </c>
       <c r="AB10" t="n">
-        <v>1703.671254716095</v>
+        <v>1887.827931729477</v>
       </c>
       <c r="AC10" t="n">
-        <v>1541.075261283614</v>
+        <v>1707.656283508358</v>
       </c>
       <c r="AD10" t="n">
-        <v>1245151.529387179</v>
+        <v>1379744.965412656</v>
       </c>
       <c r="AE10" t="n">
-        <v>1703671.254716095</v>
+        <v>1887827.931729477</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.025796114899593e-06</v>
+        <v>1.50172692283731e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.64814814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>1541075.261283614</v>
+        <v>1707656.283508359</v>
       </c>
     </row>
     <row r="11">
@@ -8742,28 +8742,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1216.470118273589</v>
+        <v>1350.892962098473</v>
       </c>
       <c r="AB11" t="n">
-        <v>1664.428082695924</v>
+        <v>1848.35134793446</v>
       </c>
       <c r="AC11" t="n">
-        <v>1505.57740252291</v>
+        <v>1671.947289465004</v>
       </c>
       <c r="AD11" t="n">
-        <v>1216470.118273589</v>
+        <v>1350892.962098473</v>
       </c>
       <c r="AE11" t="n">
-        <v>1664428.082695924</v>
+        <v>1848351.34793446</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.032587307864079e-06</v>
+        <v>1.511668973859749e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.44560185185185</v>
       </c>
       <c r="AH11" t="n">
-        <v>1505577.40252291</v>
+        <v>1671947.289465004</v>
       </c>
     </row>
     <row r="12">
@@ -8848,28 +8848,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1195.713614975917</v>
+        <v>1321.889716954942</v>
       </c>
       <c r="AB12" t="n">
-        <v>1636.028119171752</v>
+        <v>1808.66782839621</v>
       </c>
       <c r="AC12" t="n">
-        <v>1479.887891657886</v>
+        <v>1636.051109335315</v>
       </c>
       <c r="AD12" t="n">
-        <v>1195713.614975917</v>
+        <v>1321889.716954942</v>
       </c>
       <c r="AE12" t="n">
-        <v>1636028.119171752</v>
+        <v>1808667.82839621</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.038020262235667e-06</v>
+        <v>1.5196226146777e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.28935185185185</v>
       </c>
       <c r="AH12" t="n">
-        <v>1479887.891657886</v>
+        <v>1636051.109335315</v>
       </c>
     </row>
     <row r="13">
@@ -8954,28 +8954,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1177.883938851407</v>
+        <v>1304.060040830431</v>
       </c>
       <c r="AB13" t="n">
-        <v>1611.632769708401</v>
+        <v>1784.272478932859</v>
       </c>
       <c r="AC13" t="n">
-        <v>1457.820800108229</v>
+        <v>1613.984017785658</v>
       </c>
       <c r="AD13" t="n">
-        <v>1177883.938851407</v>
+        <v>1304060.040830431</v>
       </c>
       <c r="AE13" t="n">
-        <v>1611632.769708401</v>
+        <v>1784272.478932859</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.041062716683756e-06</v>
+        <v>1.524076653535752e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.20254629629629</v>
       </c>
       <c r="AH13" t="n">
-        <v>1457820.800108229</v>
+        <v>1613984.017785658</v>
       </c>
     </row>
     <row r="14">
@@ -9060,28 +9060,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1167.163362687534</v>
+        <v>1293.339464666559</v>
       </c>
       <c r="AB14" t="n">
-        <v>1596.964404442551</v>
+        <v>1769.604113667009</v>
       </c>
       <c r="AC14" t="n">
-        <v>1444.552363036172</v>
+        <v>1600.715580713601</v>
       </c>
       <c r="AD14" t="n">
-        <v>1167163.362687534</v>
+        <v>1293339.464666559</v>
       </c>
       <c r="AE14" t="n">
-        <v>1596964.404442551</v>
+        <v>1769604.113667008</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.043018580257528e-06</v>
+        <v>1.526939964230214e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>31</v>
+        <v>30.14467592592593</v>
       </c>
       <c r="AH14" t="n">
-        <v>1444552.363036172</v>
+        <v>1600715.580713601</v>
       </c>
     </row>
     <row r="15">
@@ -9166,28 +9166,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1170.057628966421</v>
+        <v>1296.233730945446</v>
       </c>
       <c r="AB15" t="n">
-        <v>1600.92446725134</v>
+        <v>1773.564176475797</v>
       </c>
       <c r="AC15" t="n">
-        <v>1448.134483008473</v>
+        <v>1604.297700685902</v>
       </c>
       <c r="AD15" t="n">
-        <v>1170057.628966421</v>
+        <v>1296233.730945446</v>
       </c>
       <c r="AE15" t="n">
-        <v>1600924.46725134</v>
+        <v>1773564.176475798</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.042529614364085e-06</v>
+        <v>1.526224136556599e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>31</v>
+        <v>30.15625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1448134.483008473</v>
+        <v>1604297.700685902</v>
       </c>
     </row>
     <row r="16">
@@ -9272,28 +9272,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1174.418733219825</v>
+        <v>1300.59483519885</v>
       </c>
       <c r="AB16" t="n">
-        <v>1606.891522489188</v>
+        <v>1779.531231713645</v>
       </c>
       <c r="AC16" t="n">
-        <v>1453.532050869236</v>
+        <v>1609.695268546665</v>
       </c>
       <c r="AD16" t="n">
-        <v>1174418.733219825</v>
+        <v>1300594.83519885</v>
       </c>
       <c r="AE16" t="n">
-        <v>1606891.522489188</v>
+        <v>1779531.231713645</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.042529614364085e-06</v>
+        <v>1.526224136556599e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>31</v>
+        <v>30.15625</v>
       </c>
       <c r="AH16" t="n">
-        <v>1453532.050869236</v>
+        <v>1609695.268546665</v>
       </c>
     </row>
   </sheetData>
@@ -9569,28 +9569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1292.633955520853</v>
+        <v>1440.041849270818</v>
       </c>
       <c r="AB2" t="n">
-        <v>1768.638804928986</v>
+        <v>1970.328788334989</v>
       </c>
       <c r="AC2" t="n">
-        <v>1599.842399686716</v>
+        <v>1782.28337415012</v>
       </c>
       <c r="AD2" t="n">
-        <v>1292633.955520853</v>
+        <v>1440041.849270818</v>
       </c>
       <c r="AE2" t="n">
-        <v>1768638.804928986</v>
+        <v>1970328.788334989</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.419128535688427e-07</v>
+        <v>1.457255447520263e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.24537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1599842.399686716</v>
+        <v>1782283.37415012</v>
       </c>
     </row>
     <row r="3">
@@ -9675,28 +9675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1016.887669055223</v>
+        <v>1148.675644482136</v>
       </c>
       <c r="AB3" t="n">
-        <v>1391.35057071912</v>
+        <v>1571.668692773362</v>
       </c>
       <c r="AC3" t="n">
-        <v>1258.562025022477</v>
+        <v>1421.670838585936</v>
       </c>
       <c r="AD3" t="n">
-        <v>1016887.669055223</v>
+        <v>1148675.644482136</v>
       </c>
       <c r="AE3" t="n">
-        <v>1391350.57071912</v>
+        <v>1571668.692773362</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.080741484235808e-06</v>
+        <v>1.672040475184638e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.45949074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1258562.025022477</v>
+        <v>1421670.838585936</v>
       </c>
     </row>
     <row r="4">
@@ -9781,28 +9781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>920.7437808083772</v>
+        <v>1044.849808355623</v>
       </c>
       <c r="AB4" t="n">
-        <v>1259.802261250791</v>
+        <v>1429.609603312449</v>
       </c>
       <c r="AC4" t="n">
-        <v>1139.568501580594</v>
+        <v>1293.169669241988</v>
       </c>
       <c r="AD4" t="n">
-        <v>920743.7808083772</v>
+        <v>1044849.808355623</v>
       </c>
       <c r="AE4" t="n">
-        <v>1259802.261250791</v>
+        <v>1429609.603312449</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.130453046308696e-06</v>
+        <v>1.748950397754415e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.03587962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1139568.501580594</v>
+        <v>1293169.669241989</v>
       </c>
     </row>
     <row r="5">
@@ -9887,28 +9887,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>877.6579686784547</v>
+        <v>1001.849247571721</v>
       </c>
       <c r="AB5" t="n">
-        <v>1200.850352282753</v>
+        <v>1370.77433899706</v>
       </c>
       <c r="AC5" t="n">
-        <v>1086.242880064941</v>
+        <v>1239.949559977048</v>
       </c>
       <c r="AD5" t="n">
-        <v>877657.9686784548</v>
+        <v>1001849.247571721</v>
       </c>
       <c r="AE5" t="n">
-        <v>1200850.352282753</v>
+        <v>1370774.33899706</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.146033377348613e-06</v>
+        <v>1.773055092998845e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.61342592592592</v>
       </c>
       <c r="AH5" t="n">
-        <v>1086242.880064941</v>
+        <v>1239949.559977048</v>
       </c>
     </row>
     <row r="6">
@@ -9993,28 +9993,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>880.8948759674252</v>
+        <v>1005.086154860691</v>
       </c>
       <c r="AB6" t="n">
-        <v>1205.279231637793</v>
+        <v>1375.203218352101</v>
       </c>
       <c r="AC6" t="n">
-        <v>1090.249073390307</v>
+        <v>1243.955753302414</v>
       </c>
       <c r="AD6" t="n">
-        <v>880894.8759674252</v>
+        <v>1005086.154860691</v>
       </c>
       <c r="AE6" t="n">
-        <v>1205279.231637793</v>
+        <v>1375203.218352101</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.146882111335223e-06</v>
+        <v>1.774368189237841e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.59027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1090249.073390307</v>
+        <v>1243955.753302414</v>
       </c>
     </row>
   </sheetData>
@@ -10290,28 +10290,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1727.631694291609</v>
+        <v>1895.911877837653</v>
       </c>
       <c r="AB2" t="n">
-        <v>2363.821901860954</v>
+        <v>2594.07027298639</v>
       </c>
       <c r="AC2" t="n">
-        <v>2138.22205719222</v>
+        <v>2346.495846933063</v>
       </c>
       <c r="AD2" t="n">
-        <v>1727631.694291609</v>
+        <v>1895911.877837653</v>
       </c>
       <c r="AE2" t="n">
-        <v>2363821.901860954</v>
+        <v>2594070.27298639</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.176985676685247e-07</v>
+        <v>1.235782913319002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.04745370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>2138222.05719222</v>
+        <v>2346495.846933063</v>
       </c>
     </row>
     <row r="3">
@@ -10396,28 +10396,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1281.386083654244</v>
+        <v>1417.665746007882</v>
       </c>
       <c r="AB3" t="n">
-        <v>1753.248970420007</v>
+        <v>1939.712816686634</v>
       </c>
       <c r="AC3" t="n">
-        <v>1585.921349383505</v>
+        <v>1754.589347866098</v>
       </c>
       <c r="AD3" t="n">
-        <v>1281386.083654244</v>
+        <v>1417665.746007882</v>
       </c>
       <c r="AE3" t="n">
-        <v>1753248.970420007</v>
+        <v>1939712.816686634</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.844397111572125e-07</v>
+        <v>1.487777797764149e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.09143518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>1585921.349383506</v>
+        <v>1754589.347866098</v>
       </c>
     </row>
     <row r="4">
@@ -10502,28 +10502,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1153.397293722864</v>
+        <v>1281.655490564757</v>
       </c>
       <c r="AB4" t="n">
-        <v>1578.129061568988</v>
+        <v>1753.617584840364</v>
       </c>
       <c r="AC4" t="n">
-        <v>1427.514638850892</v>
+        <v>1586.254783760937</v>
       </c>
       <c r="AD4" t="n">
-        <v>1153397.293722864</v>
+        <v>1281655.490564757</v>
       </c>
       <c r="AE4" t="n">
-        <v>1578129.061568988</v>
+        <v>1753617.584840364</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.043422578262602e-06</v>
+        <v>1.576918249061789e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.16435185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1427514.638850892</v>
+        <v>1586254.783760937</v>
       </c>
     </row>
     <row r="5">
@@ -10608,28 +10608,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1078.799159248569</v>
+        <v>1206.97201523589</v>
       </c>
       <c r="AB5" t="n">
-        <v>1476.060602943835</v>
+        <v>1651.432359093013</v>
       </c>
       <c r="AC5" t="n">
-        <v>1335.187450662942</v>
+        <v>1493.821972541048</v>
       </c>
       <c r="AD5" t="n">
-        <v>1078799.159248569</v>
+        <v>1206972.01523589</v>
       </c>
       <c r="AE5" t="n">
-        <v>1476060.602943835</v>
+        <v>1651432.359093013</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.075146893215059e-06</v>
+        <v>1.624863014902309e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.21527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1335187.450662942</v>
+        <v>1493821.972541048</v>
       </c>
     </row>
     <row r="6">
@@ -10714,28 +10714,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1024.878834531254</v>
+        <v>1153.136941864595</v>
       </c>
       <c r="AB6" t="n">
-        <v>1402.284435868765</v>
+        <v>1577.772836670592</v>
       </c>
       <c r="AC6" t="n">
-        <v>1268.452377428016</v>
+        <v>1427.192411556834</v>
       </c>
       <c r="AD6" t="n">
-        <v>1024878.834531254</v>
+        <v>1153136.941864595</v>
       </c>
       <c r="AE6" t="n">
-        <v>1402284.435868765</v>
+        <v>1577772.836670592</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.093705907446843e-06</v>
+        <v>1.652911141170987e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.68865740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>1268452.377428016</v>
+        <v>1427192.411556834</v>
       </c>
     </row>
     <row r="7">
@@ -10820,28 +10820,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>987.247857422912</v>
+        <v>1115.335372555662</v>
       </c>
       <c r="AB7" t="n">
-        <v>1350.79607282759</v>
+        <v>1526.05106185457</v>
       </c>
       <c r="AC7" t="n">
-        <v>1221.87799149112</v>
+        <v>1380.406890337287</v>
       </c>
       <c r="AD7" t="n">
-        <v>987247.857422912</v>
+        <v>1115335.372555662</v>
       </c>
       <c r="AE7" t="n">
-        <v>1350796.07282759</v>
+        <v>1526051.06185457</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.105305291341708e-06</v>
+        <v>1.67044122008891e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.36458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1221877.99149112</v>
+        <v>1380406.890337287</v>
       </c>
     </row>
     <row r="8">
@@ -10926,28 +10926,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>982.855432368336</v>
+        <v>1103.092163698484</v>
       </c>
       <c r="AB8" t="n">
-        <v>1344.786163087802</v>
+        <v>1509.299363363926</v>
       </c>
       <c r="AC8" t="n">
-        <v>1216.441659101935</v>
+        <v>1365.253950439433</v>
       </c>
       <c r="AD8" t="n">
-        <v>982855.432368336</v>
+        <v>1103092.163698484</v>
       </c>
       <c r="AE8" t="n">
-        <v>1344786.163087802</v>
+        <v>1509299.363363926</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.10733518352331e-06</v>
+        <v>1.673508983899546e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.3125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1216441.659101935</v>
+        <v>1365253.950439433</v>
       </c>
     </row>
     <row r="9">
@@ -11032,28 +11032,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>986.7444231678874</v>
+        <v>1106.981154498035</v>
       </c>
       <c r="AB9" t="n">
-        <v>1350.107251869913</v>
+        <v>1514.620452146037</v>
       </c>
       <c r="AC9" t="n">
-        <v>1221.254910638877</v>
+        <v>1370.067201976375</v>
       </c>
       <c r="AD9" t="n">
-        <v>986744.4231678874</v>
+        <v>1106981.154498036</v>
       </c>
       <c r="AE9" t="n">
-        <v>1350107.251869913</v>
+        <v>1514620.452146037</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.10733518352331e-06</v>
+        <v>1.673508983899546e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.3125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1221254.910638877</v>
+        <v>1370067.201976375</v>
       </c>
     </row>
   </sheetData>
@@ -11329,28 +11329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1011.306426704988</v>
+        <v>1147.279695318957</v>
       </c>
       <c r="AB2" t="n">
-        <v>1383.714068708494</v>
+        <v>1569.758693543369</v>
       </c>
       <c r="AC2" t="n">
-        <v>1251.654340045847</v>
+        <v>1419.943127001753</v>
       </c>
       <c r="AD2" t="n">
-        <v>1011306.426704988</v>
+        <v>1147279.695318957</v>
       </c>
       <c r="AE2" t="n">
-        <v>1383714.068708494</v>
+        <v>1569758.693543369</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.044492803738086e-06</v>
+        <v>1.650808332307244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.88425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1251654.340045847</v>
+        <v>1419943.127001753</v>
       </c>
     </row>
     <row r="3">
@@ -11435,28 +11435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>820.9588643469294</v>
+        <v>941.7292583405957</v>
       </c>
       <c r="AB3" t="n">
-        <v>1123.272136348416</v>
+        <v>1288.5155174243</v>
       </c>
       <c r="AC3" t="n">
-        <v>1016.068620177667</v>
+        <v>1165.541404884211</v>
       </c>
       <c r="AD3" t="n">
-        <v>820958.8643469295</v>
+        <v>941729.2583405958</v>
       </c>
       <c r="AE3" t="n">
-        <v>1123272.136348416</v>
+        <v>1288515.517424301</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.162107642328884e-06</v>
+        <v>1.836697172186075e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.35416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1016068.620177667</v>
+        <v>1165541.404884211</v>
       </c>
     </row>
     <row r="4">
@@ -11541,28 +11541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>802.6404491253815</v>
+        <v>923.4108431190475</v>
       </c>
       <c r="AB4" t="n">
-        <v>1098.208072490851</v>
+        <v>1263.451453566735</v>
       </c>
       <c r="AC4" t="n">
-        <v>993.3966353970335</v>
+        <v>1142.869420103578</v>
       </c>
       <c r="AD4" t="n">
-        <v>802640.4491253814</v>
+        <v>923410.8431190475</v>
       </c>
       <c r="AE4" t="n">
-        <v>1098208.07249085</v>
+        <v>1263451.453566735</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.174448385564321e-06</v>
+        <v>1.856201568661585e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.02430555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>993396.6353970335</v>
+        <v>1142869.420103578</v>
       </c>
     </row>
   </sheetData>
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2971.159450187235</v>
+        <v>3191.317606950092</v>
       </c>
       <c r="AB2" t="n">
-        <v>4065.271438050308</v>
+        <v>4366.501540825654</v>
       </c>
       <c r="AC2" t="n">
-        <v>3677.287637646931</v>
+        <v>3949.768762192492</v>
       </c>
       <c r="AD2" t="n">
-        <v>2971159.450187235</v>
+        <v>3191317.606950092</v>
       </c>
       <c r="AE2" t="n">
-        <v>4065271.438050307</v>
+        <v>4366501.540825654</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.057707763868845e-07</v>
+        <v>8.831449091158847e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.43518518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>3677287.637646931</v>
+        <v>3949768.762192491</v>
       </c>
     </row>
     <row r="3">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1891.972838757131</v>
+        <v>2052.897057807477</v>
       </c>
       <c r="AB3" t="n">
-        <v>2588.68070593828</v>
+        <v>2808.864321918451</v>
       </c>
       <c r="AC3" t="n">
-        <v>2341.62065259972</v>
+        <v>2540.79025330039</v>
       </c>
       <c r="AD3" t="n">
-        <v>1891972.838757131</v>
+        <v>2052897.057807477</v>
       </c>
       <c r="AE3" t="n">
-        <v>2588680.70593828</v>
+        <v>2808864.321918451</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.14568134028724e-07</v>
+        <v>1.187547713982243e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.25231481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>2341620.65259972</v>
+        <v>2540790.25330039</v>
       </c>
     </row>
     <row r="4">
@@ -12050,28 +12050,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1633.911929485625</v>
+        <v>1786.36187637498</v>
       </c>
       <c r="AB4" t="n">
-        <v>2235.590385029191</v>
+        <v>2444.179127980192</v>
       </c>
       <c r="AC4" t="n">
-        <v>2022.228776352817</v>
+        <v>2210.910102432713</v>
       </c>
       <c r="AD4" t="n">
-        <v>1633911.929485626</v>
+        <v>1786361.87637498</v>
       </c>
       <c r="AE4" t="n">
-        <v>2235590.385029191</v>
+        <v>2444179.127980192</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.94576610938413e-07</v>
+        <v>1.30419097546533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.83217592592592</v>
       </c>
       <c r="AH4" t="n">
-        <v>2022228.776352817</v>
+        <v>2210910.102432713</v>
       </c>
     </row>
     <row r="5">
@@ -12156,28 +12156,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1523.471488267246</v>
+        <v>1667.362001158139</v>
       </c>
       <c r="AB5" t="n">
-        <v>2084.480901065807</v>
+        <v>2281.358248804536</v>
       </c>
       <c r="AC5" t="n">
-        <v>1885.540969455405</v>
+        <v>2063.628619445043</v>
       </c>
       <c r="AD5" t="n">
-        <v>1523471.488267246</v>
+        <v>1667362.001158139</v>
       </c>
       <c r="AE5" t="n">
-        <v>2084480.901065807</v>
+        <v>2281358.248804536</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.362499360582643e-07</v>
+        <v>1.364945944770786e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.28125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1885540.969455405</v>
+        <v>2063628.619445043</v>
       </c>
     </row>
     <row r="6">
@@ -12262,28 +12262,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1448.187135294719</v>
+        <v>1583.688806387744</v>
       </c>
       <c r="AB6" t="n">
-        <v>1981.473528017549</v>
+        <v>2166.872892318854</v>
       </c>
       <c r="AC6" t="n">
-        <v>1792.364475519116</v>
+        <v>1960.069584701147</v>
       </c>
       <c r="AD6" t="n">
-        <v>1448187.135294719</v>
+        <v>1583688.806387744</v>
       </c>
       <c r="AE6" t="n">
-        <v>1981473.528017549</v>
+        <v>2166872.892318854</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.637629452782181e-07</v>
+        <v>1.405056783679169e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.32638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1792364.475519117</v>
+        <v>1960069.584701147</v>
       </c>
     </row>
     <row r="7">
@@ -12368,28 +12368,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1395.04842553038</v>
+        <v>1538.938848912722</v>
       </c>
       <c r="AB7" t="n">
-        <v>1908.766801003558</v>
+        <v>2105.644026272739</v>
       </c>
       <c r="AC7" t="n">
-        <v>1726.596776486809</v>
+        <v>1904.68431569522</v>
       </c>
       <c r="AD7" t="n">
-        <v>1395048.425530379</v>
+        <v>1538938.848912722</v>
       </c>
       <c r="AE7" t="n">
-        <v>1908766.801003558</v>
+        <v>2105644.026272739</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.816383250453894e-07</v>
+        <v>1.431117054750761e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.74189814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>1726596.776486809</v>
+        <v>1904684.31569522</v>
       </c>
     </row>
     <row r="8">
@@ -12474,28 +12474,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1360.731301040006</v>
+        <v>1496.147631278459</v>
       </c>
       <c r="AB8" t="n">
-        <v>1861.812597311147</v>
+        <v>2047.095194490254</v>
       </c>
       <c r="AC8" t="n">
-        <v>1684.123816094162</v>
+        <v>1851.723302244254</v>
       </c>
       <c r="AD8" t="n">
-        <v>1360731.301040006</v>
+        <v>1496147.631278459</v>
       </c>
       <c r="AE8" t="n">
-        <v>1861812.597311147</v>
+        <v>2047095.194490254</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.945602863228628e-07</v>
+        <v>1.449955804922995e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.33101851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>1684123.816094162</v>
+        <v>1851723.302244254</v>
       </c>
     </row>
     <row r="9">
@@ -12580,28 +12580,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1333.709618155095</v>
+        <v>1469.125948393548</v>
       </c>
       <c r="AB9" t="n">
-        <v>1824.840338675498</v>
+        <v>2010.122935854605</v>
       </c>
       <c r="AC9" t="n">
-        <v>1650.680137931809</v>
+        <v>1818.2796240819</v>
       </c>
       <c r="AD9" t="n">
-        <v>1333709.618155095</v>
+        <v>1469125.948393548</v>
       </c>
       <c r="AE9" t="n">
-        <v>1824840.338675498</v>
+        <v>2010122.935854605</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.003282610185157e-06</v>
+        <v>1.462671961289254e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.05324074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>1650680.137931809</v>
+        <v>1818279.6240819</v>
       </c>
     </row>
     <row r="10">
@@ -12686,28 +12686,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1297.436905184377</v>
+        <v>1432.938486768851</v>
       </c>
       <c r="AB10" t="n">
-        <v>1775.210412549805</v>
+        <v>1960.609654381562</v>
       </c>
       <c r="AC10" t="n">
-        <v>1605.786822299513</v>
+        <v>1773.491820700317</v>
       </c>
       <c r="AD10" t="n">
-        <v>1297436.905184377</v>
+        <v>1432938.486768851</v>
       </c>
       <c r="AE10" t="n">
-        <v>1775210.412549805</v>
+        <v>1960609.654381562</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.012112617058098e-06</v>
+        <v>1.475545107240281e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.78703703703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>1605786.822299513</v>
+        <v>1773491.820700317</v>
       </c>
     </row>
     <row r="11">
@@ -12792,28 +12792,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1271.820616016621</v>
+        <v>1407.322197601095</v>
       </c>
       <c r="AB11" t="n">
-        <v>1740.161075599562</v>
+        <v>1925.560317431318</v>
       </c>
       <c r="AC11" t="n">
-        <v>1574.082544875748</v>
+        <v>1741.787543276552</v>
       </c>
       <c r="AD11" t="n">
-        <v>1271820.616016621</v>
+        <v>1407322.197601095</v>
       </c>
       <c r="AE11" t="n">
-        <v>1740161.075599562</v>
+        <v>1925560.317431318</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.017981341138283e-06</v>
+        <v>1.484101039610171e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.60763888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>1574082.544875748</v>
+        <v>1741787.543276552</v>
       </c>
     </row>
     <row r="12">
@@ -12898,28 +12898,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1250.876024788458</v>
+        <v>1386.20701417234</v>
       </c>
       <c r="AB12" t="n">
-        <v>1711.503761871038</v>
+        <v>1896.669591927948</v>
       </c>
       <c r="AC12" t="n">
-        <v>1548.160244948682</v>
+        <v>1715.654108066835</v>
       </c>
       <c r="AD12" t="n">
-        <v>1250876.024788458</v>
+        <v>1386207.01417234</v>
       </c>
       <c r="AE12" t="n">
-        <v>1711503.761871038</v>
+        <v>1896669.591927947</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.023796223713146e-06</v>
+        <v>1.492578477187676e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.43402777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1548160.244948682</v>
+        <v>1715654.108066835</v>
       </c>
     </row>
     <row r="13">
@@ -13004,28 +13004,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1230.025629059856</v>
+        <v>1357.05311750044</v>
       </c>
       <c r="AB13" t="n">
-        <v>1682.975330580624</v>
+        <v>1856.779944322307</v>
       </c>
       <c r="AC13" t="n">
-        <v>1522.354527100721</v>
+        <v>1679.571472443205</v>
       </c>
       <c r="AD13" t="n">
-        <v>1230025.629059856</v>
+        <v>1357053.11750044</v>
       </c>
       <c r="AE13" t="n">
-        <v>1682975.330580624</v>
+        <v>1856779.944322307</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.027942019623002e-06</v>
+        <v>1.498622576201268e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.3125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1522354.527100721</v>
+        <v>1679571.472443205</v>
       </c>
     </row>
     <row r="14">
@@ -13110,28 +13110,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1210.559008794362</v>
+        <v>1337.586497234946</v>
       </c>
       <c r="AB14" t="n">
-        <v>1656.340241926701</v>
+        <v>1830.144855668384</v>
       </c>
       <c r="AC14" t="n">
-        <v>1498.261453925346</v>
+        <v>1655.47839926783</v>
       </c>
       <c r="AD14" t="n">
-        <v>1210559.008794362</v>
+        <v>1337586.497234946</v>
       </c>
       <c r="AE14" t="n">
-        <v>1656340.241926701</v>
+        <v>1830144.855668384</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.031441717468985e-06</v>
+        <v>1.503724737706248e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>31</v>
+        <v>30.20833333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1498261.453925346</v>
+        <v>1655478.39926783</v>
       </c>
     </row>
     <row r="15">
@@ -13216,28 +13216,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1200.15477229593</v>
+        <v>1327.182260736515</v>
       </c>
       <c r="AB15" t="n">
-        <v>1642.104706547027</v>
+        <v>1815.90932028871</v>
       </c>
       <c r="AC15" t="n">
-        <v>1485.384538062609</v>
+        <v>1642.601483405093</v>
       </c>
       <c r="AD15" t="n">
-        <v>1200154.77229593</v>
+        <v>1327182.260736515</v>
       </c>
       <c r="AE15" t="n">
-        <v>1642104.706547027</v>
+        <v>1815909.32028871</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.033541536176574e-06</v>
+        <v>1.506786034609237e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>31</v>
+        <v>30.14467592592593</v>
       </c>
       <c r="AH15" t="n">
-        <v>1485384.538062609</v>
+        <v>1642601.483405093</v>
       </c>
     </row>
     <row r="16">
@@ -13322,28 +13322,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1195.435228335823</v>
+        <v>1322.462716776407</v>
       </c>
       <c r="AB16" t="n">
-        <v>1635.647218289223</v>
+        <v>1809.451832030906</v>
       </c>
       <c r="AC16" t="n">
-        <v>1479.543343420988</v>
+        <v>1636.760288763472</v>
       </c>
       <c r="AD16" t="n">
-        <v>1195435.228335822</v>
+        <v>1322462.716776407</v>
       </c>
       <c r="AE16" t="n">
-        <v>1635647.218289223</v>
+        <v>1809451.832030906</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.034403000261739e-06</v>
+        <v>1.508041951287386e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>31</v>
+        <v>30.12152777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>1479543.343420988</v>
+        <v>1636760.288763472</v>
       </c>
     </row>
     <row r="17">
@@ -13428,28 +13428,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1200.057266373517</v>
+        <v>1327.084754814101</v>
       </c>
       <c r="AB17" t="n">
-        <v>1641.971294642324</v>
+        <v>1815.775908384007</v>
       </c>
       <c r="AC17" t="n">
-        <v>1485.263858802846</v>
+        <v>1642.48080414533</v>
       </c>
       <c r="AD17" t="n">
-        <v>1200057.266373517</v>
+        <v>1327084.754814101</v>
       </c>
       <c r="AE17" t="n">
-        <v>1641971.294642324</v>
+        <v>1815775.908384007</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.034456841767062e-06</v>
+        <v>1.50812044607977e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>31</v>
+        <v>30.12152777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>1485263.858802846</v>
+        <v>1642480.80414533</v>
       </c>
     </row>
   </sheetData>
@@ -13725,28 +13725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>865.0305451501609</v>
+        <v>991.4316988279054</v>
       </c>
       <c r="AB2" t="n">
-        <v>1183.572954328732</v>
+        <v>1356.520589215958</v>
       </c>
       <c r="AC2" t="n">
-        <v>1070.614412722671</v>
+        <v>1227.056168069791</v>
       </c>
       <c r="AD2" t="n">
-        <v>865030.5451501609</v>
+        <v>991431.6988279053</v>
       </c>
       <c r="AE2" t="n">
-        <v>1183572.954328732</v>
+        <v>1356520.589215958</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.109960132644578e-06</v>
+        <v>1.778416859554413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1070614.412722671</v>
+        <v>1227056.168069791</v>
       </c>
     </row>
     <row r="3">
@@ -13831,28 +13831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>752.2943733736951</v>
+        <v>871.0895728698038</v>
       </c>
       <c r="AB3" t="n">
-        <v>1029.32235053529</v>
+        <v>1191.863183360185</v>
       </c>
       <c r="AC3" t="n">
-        <v>931.0852700631932</v>
+        <v>1078.113433930772</v>
       </c>
       <c r="AD3" t="n">
-        <v>752294.3733736951</v>
+        <v>871089.5728698038</v>
       </c>
       <c r="AE3" t="n">
-        <v>1029322.35053529</v>
+        <v>1191863.183360185</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.185864755671126e-06</v>
+        <v>1.900033895462639e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.44675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>931085.2700631932</v>
+        <v>1078113.433930772</v>
       </c>
     </row>
     <row r="4">
@@ -13937,28 +13937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>757.8062466838594</v>
+        <v>876.6014461799681</v>
       </c>
       <c r="AB4" t="n">
-        <v>1036.863938764945</v>
+        <v>1199.40477158984</v>
       </c>
       <c r="AC4" t="n">
-        <v>937.9070996968959</v>
+        <v>1084.935263564475</v>
       </c>
       <c r="AD4" t="n">
-        <v>757806.2466838594</v>
+        <v>876601.4461799681</v>
       </c>
       <c r="AE4" t="n">
-        <v>1036863.938764945</v>
+        <v>1199404.77158984</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.186895718292878e-06</v>
+        <v>1.901685739753413e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.41782407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>937907.0996968959</v>
+        <v>1084935.263564475</v>
       </c>
     </row>
   </sheetData>
@@ -14234,28 +14234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2204.269258850751</v>
+        <v>2393.462561555536</v>
       </c>
       <c r="AB2" t="n">
-        <v>3015.978445456227</v>
+        <v>3274.841068836369</v>
       </c>
       <c r="AC2" t="n">
-        <v>2728.137695574105</v>
+        <v>2962.29483349481</v>
       </c>
       <c r="AD2" t="n">
-        <v>2204269.258850751</v>
+        <v>2393462.561555536</v>
       </c>
       <c r="AE2" t="n">
-        <v>3015978.445456227</v>
+        <v>3274841.068836369</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.178396255106331e-07</v>
+        <v>1.065879284569432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.12731481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>2728137.695574105</v>
+        <v>2962294.833494809</v>
       </c>
     </row>
     <row r="3">
@@ -14340,28 +14340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1529.932958000534</v>
+        <v>1686.193319908876</v>
       </c>
       <c r="AB3" t="n">
-        <v>2093.321769014817</v>
+        <v>2307.124089898443</v>
       </c>
       <c r="AC3" t="n">
-        <v>1893.538077375598</v>
+        <v>2086.935404827533</v>
       </c>
       <c r="AD3" t="n">
-        <v>1529932.958000534</v>
+        <v>1686193.319908876</v>
       </c>
       <c r="AE3" t="n">
-        <v>2093321.769014817</v>
+        <v>2307124.089898443</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.052481615531783e-07</v>
+        <v>1.344151574396198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.78125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1893538.077375598</v>
+        <v>2086935.404827533</v>
       </c>
     </row>
     <row r="4">
@@ -14446,28 +14446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1363.400720843595</v>
+        <v>1503.194746616542</v>
       </c>
       <c r="AB4" t="n">
-        <v>1865.465015252907</v>
+        <v>2056.737368592606</v>
       </c>
       <c r="AC4" t="n">
-        <v>1687.427652393762</v>
+        <v>1860.445240783154</v>
       </c>
       <c r="AD4" t="n">
-        <v>1363400.720843595</v>
+        <v>1503194.746616542</v>
       </c>
       <c r="AE4" t="n">
-        <v>1865465.015252907</v>
+        <v>2056737.368592606</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.731473712961914e-07</v>
+        <v>1.444971254073578e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.28703703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>1687427.652393762</v>
+        <v>1860445.240783154</v>
       </c>
     </row>
     <row r="5">
@@ -14552,28 +14552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1277.068417950115</v>
+        <v>1408.71457175566</v>
       </c>
       <c r="AB5" t="n">
-        <v>1747.341349721649</v>
+        <v>1927.465425176807</v>
       </c>
       <c r="AC5" t="n">
-        <v>1580.577543713201</v>
+        <v>1743.510830212647</v>
       </c>
       <c r="AD5" t="n">
-        <v>1277068.417950114</v>
+        <v>1408714.57175566</v>
       </c>
       <c r="AE5" t="n">
-        <v>1747341.349721649</v>
+        <v>1927465.425176807</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.009811825032113e-06</v>
+        <v>1.499412218779831e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.0775462962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1580577.543713201</v>
+        <v>1743510.830212647</v>
       </c>
     </row>
     <row r="6">
@@ -14658,28 +14658,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1217.490446255427</v>
+        <v>1349.051259206401</v>
       </c>
       <c r="AB6" t="n">
-        <v>1665.82414045437</v>
+        <v>1845.83144878733</v>
       </c>
       <c r="AC6" t="n">
-        <v>1506.840222488269</v>
+        <v>1669.667885955776</v>
       </c>
       <c r="AD6" t="n">
-        <v>1217490.446255427</v>
+        <v>1349051.259206401</v>
       </c>
       <c r="AE6" t="n">
-        <v>1665824.14045437</v>
+        <v>1845831.44878733</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.031978426069404e-06</v>
+        <v>1.532326145533534e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.38888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1506840.222488269</v>
+        <v>1669667.885955776</v>
       </c>
     </row>
     <row r="7">
@@ -14764,28 +14764,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1169.736880298634</v>
+        <v>1301.382944595629</v>
       </c>
       <c r="AB7" t="n">
-        <v>1600.485604773642</v>
+        <v>1780.609557759252</v>
       </c>
       <c r="AC7" t="n">
-        <v>1447.737504949699</v>
+        <v>1610.670680667918</v>
       </c>
       <c r="AD7" t="n">
-        <v>1169736.880298634</v>
+        <v>1301382.944595629</v>
       </c>
       <c r="AE7" t="n">
-        <v>1600485.604773642</v>
+        <v>1780609.557759252</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.047092017685738e-06</v>
+        <v>1.554767459229241e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.9375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1447737.504949699</v>
+        <v>1610670.680667918</v>
       </c>
     </row>
     <row r="8">
@@ -14870,28 +14870,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1136.415467645562</v>
+        <v>1268.061531942557</v>
       </c>
       <c r="AB8" t="n">
-        <v>1554.893777944732</v>
+        <v>1735.017730930342</v>
       </c>
       <c r="AC8" t="n">
-        <v>1406.49689808481</v>
+        <v>1569.430073803029</v>
       </c>
       <c r="AD8" t="n">
-        <v>1136415.467645562</v>
+        <v>1268061.531942557</v>
       </c>
       <c r="AE8" t="n">
-        <v>1554893.777944732</v>
+        <v>1735017.730930342</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.058623128326349e-06</v>
+        <v>1.571889350419299e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.60185185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>1406496.89808481</v>
+        <v>1569430.073803029</v>
       </c>
     </row>
     <row r="9">
@@ -14976,28 +14976,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1104.632436500424</v>
+        <v>1236.107908596827</v>
       </c>
       <c r="AB9" t="n">
-        <v>1511.406832563581</v>
+        <v>1691.297373774344</v>
       </c>
       <c r="AC9" t="n">
-        <v>1367.160285736524</v>
+        <v>1529.882326172092</v>
       </c>
       <c r="AD9" t="n">
-        <v>1104632.436500424</v>
+        <v>1236107.908596827</v>
       </c>
       <c r="AE9" t="n">
-        <v>1511406.83256358</v>
+        <v>1691297.373774344</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.066683710521727e-06</v>
+        <v>1.583858051057009e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.37037037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>1367160.285736524</v>
+        <v>1529882.326172092</v>
       </c>
     </row>
     <row r="10">
@@ -15082,28 +15082,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1082.03146045522</v>
+        <v>1205.444401438793</v>
       </c>
       <c r="AB10" t="n">
-        <v>1480.48318005384</v>
+        <v>1649.34221050226</v>
       </c>
       <c r="AC10" t="n">
-        <v>1339.187943220694</v>
+        <v>1491.931304798255</v>
       </c>
       <c r="AD10" t="n">
-        <v>1082031.46045522</v>
+        <v>1205444.401438793</v>
       </c>
       <c r="AE10" t="n">
-        <v>1480483.180053839</v>
+        <v>1649342.21050226</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.071497669332856e-06</v>
+        <v>1.591006025048975e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.23148148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>1339187.943220694</v>
+        <v>1491931.304798255</v>
       </c>
     </row>
     <row r="11">
@@ -15188,28 +15188,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1077.473808432394</v>
+        <v>1200.886749415967</v>
       </c>
       <c r="AB11" t="n">
-        <v>1474.247199486793</v>
+        <v>1643.106229935213</v>
       </c>
       <c r="AC11" t="n">
-        <v>1333.547115886713</v>
+        <v>1486.290477464274</v>
       </c>
       <c r="AD11" t="n">
-        <v>1077473.808432394</v>
+        <v>1200886.749415967</v>
       </c>
       <c r="AE11" t="n">
-        <v>1474247.199486793</v>
+        <v>1643106.229935213</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.073232933555472e-06</v>
+        <v>1.593582620325149e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.18518518518519</v>
       </c>
       <c r="AH11" t="n">
-        <v>1333547.115886713</v>
+        <v>1486290.477464274</v>
       </c>
     </row>
     <row r="12">
@@ -15294,28 +15294,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1081.975033863162</v>
+        <v>1205.387974846735</v>
       </c>
       <c r="AB12" t="n">
-        <v>1480.405974701221</v>
+        <v>1649.265005149642</v>
       </c>
       <c r="AC12" t="n">
-        <v>1339.118106238571</v>
+        <v>1491.861467816132</v>
       </c>
       <c r="AD12" t="n">
-        <v>1081975.033863162</v>
+        <v>1205387.974846735</v>
       </c>
       <c r="AE12" t="n">
-        <v>1480405.974701221</v>
+        <v>1649265.005149642</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.073065004759735e-06</v>
+        <v>1.593333272395197e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.18518518518519</v>
       </c>
       <c r="AH12" t="n">
-        <v>1339118.106238571</v>
+        <v>1491861.467816132</v>
       </c>
     </row>
   </sheetData>
@@ -15591,28 +15591,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2565.552127944847</v>
+        <v>2766.071023518348</v>
       </c>
       <c r="AB2" t="n">
-        <v>3510.301605626088</v>
+        <v>3784.660404819102</v>
       </c>
       <c r="AC2" t="n">
-        <v>3175.283347124248</v>
+        <v>3423.457727587263</v>
       </c>
       <c r="AD2" t="n">
-        <v>2565552.127944847</v>
+        <v>2766071.023518348</v>
       </c>
       <c r="AE2" t="n">
-        <v>3510301.605626088</v>
+        <v>3784660.404819102</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.593536568913549e-07</v>
+        <v>9.695416258707028e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.13657407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>3175283.347124248</v>
+        <v>3423457.727587263</v>
       </c>
     </row>
     <row r="3">
@@ -15697,28 +15697,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1702.433592691191</v>
+        <v>1869.34769256041</v>
       </c>
       <c r="AB3" t="n">
-        <v>2329.344747589475</v>
+        <v>2557.723982760921</v>
       </c>
       <c r="AC3" t="n">
-        <v>2107.035354135422</v>
+        <v>2313.618395634374</v>
       </c>
       <c r="AD3" t="n">
-        <v>1702433.592691191</v>
+        <v>1869347.692560409</v>
       </c>
       <c r="AE3" t="n">
-        <v>2329344.747589475</v>
+        <v>2557723.982760921</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.584431407139817e-07</v>
+        <v>1.262291260033958e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.97337962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>2107035.354135422</v>
+        <v>2313618.395634374</v>
       </c>
     </row>
     <row r="4">
@@ -15803,28 +15803,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1501.03188371033</v>
+        <v>1643.041236432303</v>
       </c>
       <c r="AB4" t="n">
-        <v>2053.77804414555</v>
+        <v>2248.081505550233</v>
       </c>
       <c r="AC4" t="n">
-        <v>1857.768350107886</v>
+        <v>2033.527761862728</v>
       </c>
       <c r="AD4" t="n">
-        <v>1501031.88371033</v>
+        <v>1643041.236432303</v>
       </c>
       <c r="AE4" t="n">
-        <v>2053778.04414555</v>
+        <v>2248081.505550233</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.329234489870195e-07</v>
+        <v>1.371810269178228e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.02199074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>1857768.350107886</v>
+        <v>2033527.761862728</v>
       </c>
     </row>
     <row r="5">
@@ -15909,28 +15909,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1394.206229569082</v>
+        <v>1536.215492782505</v>
       </c>
       <c r="AB5" t="n">
-        <v>1907.614471334248</v>
+        <v>2101.917810269383</v>
       </c>
       <c r="AC5" t="n">
-        <v>1725.554423543832</v>
+        <v>1901.313724517447</v>
       </c>
       <c r="AD5" t="n">
-        <v>1394206.229569082</v>
+        <v>1536215.492782505</v>
       </c>
       <c r="AE5" t="n">
-        <v>1907614.471334248</v>
+        <v>2101917.810269383</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.724671178123951e-07</v>
+        <v>1.429956959600186e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.63888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1725554.423543832</v>
+        <v>1901313.724517447</v>
       </c>
     </row>
     <row r="6">
@@ -16015,28 +16015,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1331.17884097072</v>
+        <v>1473.102763329571</v>
       </c>
       <c r="AB6" t="n">
-        <v>1821.377617681827</v>
+        <v>2015.564189494764</v>
       </c>
       <c r="AC6" t="n">
-        <v>1647.547894169815</v>
+        <v>1823.201572111491</v>
       </c>
       <c r="AD6" t="n">
-        <v>1331178.84097072</v>
+        <v>1473102.763329571</v>
       </c>
       <c r="AE6" t="n">
-        <v>1821377.617681827</v>
+        <v>2015564.189494764</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.963249485184125e-07</v>
+        <v>1.465038527330493e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.85763888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1647547.894169814</v>
+        <v>1823201.572111491</v>
       </c>
     </row>
     <row r="7">
@@ -16121,28 +16121,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1288.861829265332</v>
+        <v>1422.427335011087</v>
       </c>
       <c r="AB7" t="n">
-        <v>1763.477615371717</v>
+        <v>1946.227832827301</v>
       </c>
       <c r="AC7" t="n">
-        <v>1595.173786817018</v>
+        <v>1760.482580010182</v>
       </c>
       <c r="AD7" t="n">
-        <v>1288861.829265332</v>
+        <v>1422427.335011087</v>
       </c>
       <c r="AE7" t="n">
-        <v>1763477.615371717</v>
+        <v>1946227.832827301</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.01294316163088e-06</v>
+        <v>1.4894746538185e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.33101851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>1595173.786817017</v>
+        <v>1760482.580010182</v>
       </c>
     </row>
     <row r="8">
@@ -16227,28 +16227,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1245.575044609344</v>
+        <v>1379.22580170112</v>
       </c>
       <c r="AB8" t="n">
-        <v>1704.250726927234</v>
+        <v>1887.117589035467</v>
       </c>
       <c r="AC8" t="n">
-        <v>1541.599429480216</v>
+        <v>1707.013734924092</v>
       </c>
       <c r="AD8" t="n">
-        <v>1245575.044609344</v>
+        <v>1379225.80170112</v>
       </c>
       <c r="AE8" t="n">
-        <v>1704250.726927234</v>
+        <v>1887117.589035467</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.025667338007422e-06</v>
+        <v>1.508184823274665e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.94328703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>1541599.429480216</v>
+        <v>1707013.734924092</v>
       </c>
     </row>
     <row r="9">
@@ -16333,28 +16333,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1217.799658141157</v>
+        <v>1351.450415232932</v>
       </c>
       <c r="AB9" t="n">
-        <v>1666.24721779789</v>
+        <v>1849.114079906124</v>
       </c>
       <c r="AC9" t="n">
-        <v>1507.222921923917</v>
+        <v>1672.637227367793</v>
       </c>
       <c r="AD9" t="n">
-        <v>1217799.658141157</v>
+        <v>1351450.415232932</v>
       </c>
       <c r="AE9" t="n">
-        <v>1666247.21779789</v>
+        <v>1849114.079906124</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.03411355853323e-06</v>
+        <v>1.520604504724014e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.69444444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1507222.921923917</v>
+        <v>1672637.227367793</v>
       </c>
     </row>
     <row r="10">
@@ -16439,28 +16439,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1188.881366792118</v>
+        <v>1322.361531683302</v>
       </c>
       <c r="AB10" t="n">
-        <v>1626.679935789163</v>
+        <v>1809.313386122549</v>
       </c>
       <c r="AC10" t="n">
-        <v>1471.431885777073</v>
+        <v>1636.635055938298</v>
       </c>
       <c r="AD10" t="n">
-        <v>1188881.366792118</v>
+        <v>1322361.531683302</v>
       </c>
       <c r="AE10" t="n">
-        <v>1626679.935789163</v>
+        <v>1809313.386122549</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.041298330538951e-06</v>
+        <v>1.531169298684176e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.48032407407408</v>
       </c>
       <c r="AH10" t="n">
-        <v>1471431.885777073</v>
+        <v>1636635.055938298</v>
       </c>
     </row>
     <row r="11">
@@ -16545,28 +16545,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1165.817281775609</v>
+        <v>1291.109622254289</v>
       </c>
       <c r="AB11" t="n">
-        <v>1595.122637153956</v>
+        <v>1766.553144904835</v>
       </c>
       <c r="AC11" t="n">
-        <v>1442.886371432663</v>
+        <v>1597.955792128028</v>
       </c>
       <c r="AD11" t="n">
-        <v>1165817.281775609</v>
+        <v>1291109.622254289</v>
       </c>
       <c r="AE11" t="n">
-        <v>1595122.637153956</v>
+        <v>1766553.144904835</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.047221654024582e-06</v>
+        <v>1.539879205155149e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.30671296296296</v>
       </c>
       <c r="AH11" t="n">
-        <v>1442886.371432663</v>
+        <v>1597955.792128028</v>
       </c>
     </row>
     <row r="12">
@@ -16651,28 +16651,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1144.708470844372</v>
+        <v>1270.000811323051</v>
       </c>
       <c r="AB12" t="n">
-        <v>1566.240630782823</v>
+        <v>1737.671138533703</v>
       </c>
       <c r="AC12" t="n">
-        <v>1416.760823213441</v>
+        <v>1571.830243908806</v>
       </c>
       <c r="AD12" t="n">
-        <v>1144708.470844371</v>
+        <v>1270000.811323051</v>
       </c>
       <c r="AE12" t="n">
-        <v>1566240.630782823</v>
+        <v>1737671.138533703</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.050293006943058e-06</v>
+        <v>1.544395452954913e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.21990740740741</v>
       </c>
       <c r="AH12" t="n">
-        <v>1416760.823213441</v>
+        <v>1571830.243908806</v>
       </c>
     </row>
     <row r="13">
@@ -16757,28 +16757,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1139.999660563524</v>
+        <v>1265.292001042204</v>
       </c>
       <c r="AB13" t="n">
-        <v>1559.79782881852</v>
+        <v>1731.2283365694</v>
       </c>
       <c r="AC13" t="n">
-        <v>1410.932913226082</v>
+        <v>1566.002333921447</v>
       </c>
       <c r="AD13" t="n">
-        <v>1139999.660563524</v>
+        <v>1265292.001042204</v>
       </c>
       <c r="AE13" t="n">
-        <v>1559797.82881852</v>
+        <v>1731228.3365694</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.052431984868425e-06</v>
+        <v>1.54754069695832e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.15625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1410932.913226082</v>
+        <v>1566002.333921446</v>
       </c>
     </row>
     <row r="14">
@@ -16863,28 +16863,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1143.157334714479</v>
+        <v>1268.449675193158</v>
       </c>
       <c r="AB14" t="n">
-        <v>1564.118297898607</v>
+        <v>1735.548805649487</v>
       </c>
       <c r="AC14" t="n">
-        <v>1414.841042800982</v>
+        <v>1569.910463496347</v>
       </c>
       <c r="AD14" t="n">
-        <v>1143157.334714479</v>
+        <v>1268449.675193158</v>
       </c>
       <c r="AE14" t="n">
-        <v>1564118.297898607</v>
+        <v>1735548.805649487</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.051938374577956e-06</v>
+        <v>1.546814871419072e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>31</v>
+        <v>30.17361111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>1414841.042800982</v>
+        <v>1569910.463496347</v>
       </c>
     </row>
     <row r="15">
@@ -16969,28 +16969,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1146.041299677909</v>
+        <v>1271.333640156589</v>
       </c>
       <c r="AB15" t="n">
-        <v>1568.064265993127</v>
+        <v>1739.494773744007</v>
       </c>
       <c r="AC15" t="n">
-        <v>1418.410413238763</v>
+        <v>1573.479833934127</v>
       </c>
       <c r="AD15" t="n">
-        <v>1146041.299677909</v>
+        <v>1271333.640156589</v>
       </c>
       <c r="AE15" t="n">
-        <v>1568064.265993128</v>
+        <v>1739494.773744007</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.052048065753616e-06</v>
+        <v>1.546976165983349e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>31</v>
+        <v>30.16782407407408</v>
       </c>
       <c r="AH15" t="n">
-        <v>1418410.413238763</v>
+        <v>1573479.833934127</v>
       </c>
     </row>
   </sheetData>
@@ -17266,28 +17266,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3420.916444096186</v>
+        <v>3669.538282574017</v>
       </c>
       <c r="AB2" t="n">
-        <v>4680.64879899477</v>
+        <v>5020.824166821561</v>
       </c>
       <c r="AC2" t="n">
-        <v>4233.934246950383</v>
+        <v>4541.643755110897</v>
       </c>
       <c r="AD2" t="n">
-        <v>3420916.444096186</v>
+        <v>3669538.282574017</v>
       </c>
       <c r="AE2" t="n">
-        <v>4680648.79899477</v>
+        <v>5020824.166821561</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.573336625591898e-07</v>
+        <v>8.063350200297911e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.96527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>4233934.246950382</v>
+        <v>4541643.755110897</v>
       </c>
     </row>
     <row r="3">
@@ -17372,28 +17372,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2076.909548099626</v>
+        <v>2248.549452266212</v>
       </c>
       <c r="AB3" t="n">
-        <v>2841.719270492476</v>
+        <v>3076.564559591527</v>
       </c>
       <c r="AC3" t="n">
-        <v>2570.509571694719</v>
+        <v>2782.941556009475</v>
       </c>
       <c r="AD3" t="n">
-        <v>2076909.548099626</v>
+        <v>2248549.452266212</v>
       </c>
       <c r="AE3" t="n">
-        <v>2841719.270492476</v>
+        <v>3076564.559591527</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.747509642433267e-07</v>
+        <v>1.120888394579787e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.54282407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>2570509.571694719</v>
+        <v>2782941.556009475</v>
       </c>
     </row>
     <row r="4">
@@ -17478,28 +17478,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1776.812826737196</v>
+        <v>1939.700053986307</v>
       </c>
       <c r="AB4" t="n">
-        <v>2431.113696991439</v>
+        <v>2653.983187390971</v>
       </c>
       <c r="AC4" t="n">
-        <v>2199.091617840078</v>
+        <v>2400.690756875174</v>
       </c>
       <c r="AD4" t="n">
-        <v>1776812.826737196</v>
+        <v>1939700.053986307</v>
       </c>
       <c r="AE4" t="n">
-        <v>2431113.696991439</v>
+        <v>2653983.187390971</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.593991905381732e-07</v>
+        <v>1.243355121121165e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.64814814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>2199091.617840079</v>
+        <v>2400690.756875174</v>
       </c>
     </row>
     <row r="5">
@@ -17584,28 +17584,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1640.497679570088</v>
+        <v>1794.802911610871</v>
       </c>
       <c r="AB5" t="n">
-        <v>2244.601298837541</v>
+        <v>2455.728524782131</v>
       </c>
       <c r="AC5" t="n">
-        <v>2030.379701194195</v>
+        <v>2221.357241013555</v>
       </c>
       <c r="AD5" t="n">
-        <v>1640497.679570088</v>
+        <v>1794802.911610871</v>
       </c>
       <c r="AE5" t="n">
-        <v>2244601.298837542</v>
+        <v>2455728.52478213</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.040261165960568e-07</v>
+        <v>1.307920130798703e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.88888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>2030379.701194195</v>
+        <v>2221357.241013555</v>
       </c>
     </row>
     <row r="6">
@@ -17690,28 +17690,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1558.333029781967</v>
+        <v>1704.141607468992</v>
       </c>
       <c r="AB6" t="n">
-        <v>2132.180000148915</v>
+        <v>2331.681728760757</v>
       </c>
       <c r="AC6" t="n">
-        <v>1928.687733468127</v>
+        <v>2109.14929710369</v>
       </c>
       <c r="AD6" t="n">
-        <v>1558333.029781967</v>
+        <v>1704141.607468992</v>
       </c>
       <c r="AE6" t="n">
-        <v>2132180.000148915</v>
+        <v>2331681.728760757</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.328774507615922e-07</v>
+        <v>1.349661447850017e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.84143518518518</v>
       </c>
       <c r="AH6" t="n">
-        <v>1928687.733468127</v>
+        <v>2109149.29710369</v>
       </c>
     </row>
     <row r="7">
@@ -17796,28 +17796,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1509.959125108845</v>
+        <v>1647.185797096092</v>
       </c>
       <c r="AB7" t="n">
-        <v>2065.992689669092</v>
+        <v>2253.75227629554</v>
       </c>
       <c r="AC7" t="n">
-        <v>1868.817247006025</v>
+        <v>2038.657322207079</v>
       </c>
       <c r="AD7" t="n">
-        <v>1509959.125108845</v>
+        <v>1647185.797096092</v>
       </c>
       <c r="AE7" t="n">
-        <v>2065992.689669092</v>
+        <v>2253752.27629554</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.518822745513671e-07</v>
+        <v>1.377157104403085e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.18171296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>1868817.247006025</v>
+        <v>2038657.32220708</v>
       </c>
     </row>
     <row r="8">
@@ -17902,28 +17902,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1463.463239886641</v>
+        <v>1609.186476719094</v>
       </c>
       <c r="AB8" t="n">
-        <v>2002.374968254387</v>
+        <v>2201.759929744033</v>
       </c>
       <c r="AC8" t="n">
-        <v>1811.271111635107</v>
+        <v>1991.627052238731</v>
       </c>
       <c r="AD8" t="n">
-        <v>1463463.239886641</v>
+        <v>1609186.476719094</v>
       </c>
       <c r="AE8" t="n">
-        <v>2002374.968254387</v>
+        <v>2201759.929744033</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.663873489758749e-07</v>
+        <v>1.398142647287599e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.70138888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1811271.111635107</v>
+        <v>1991627.052238731</v>
       </c>
     </row>
     <row r="9">
@@ -18008,28 +18008,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1432.394012405625</v>
+        <v>1569.535343538299</v>
       </c>
       <c r="AB9" t="n">
-        <v>1959.864680537281</v>
+        <v>2147.507500041531</v>
       </c>
       <c r="AC9" t="n">
-        <v>1772.817946114158</v>
+        <v>1942.552398283273</v>
       </c>
       <c r="AD9" t="n">
-        <v>1432394.012405625</v>
+        <v>1569535.343538299</v>
       </c>
       <c r="AE9" t="n">
-        <v>1959864.680537281</v>
+        <v>2147507.500041531</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.772396856803426e-07</v>
+        <v>1.413843509664699e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.34837962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>1772817.946114158</v>
+        <v>1942552.398283273</v>
       </c>
     </row>
     <row r="10">
@@ -18114,28 +18114,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1407.251206971668</v>
+        <v>1544.392538104343</v>
       </c>
       <c r="AB10" t="n">
-        <v>1925.463184920252</v>
+        <v>2113.106004424501</v>
       </c>
       <c r="AC10" t="n">
-        <v>1741.699680956015</v>
+        <v>1911.43413312513</v>
       </c>
       <c r="AD10" t="n">
-        <v>1407251.206971668</v>
+        <v>1544392.538104343</v>
       </c>
       <c r="AE10" t="n">
-        <v>1925463.184920252</v>
+        <v>2113106.004424501</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.851274816265163e-07</v>
+        <v>1.42525535597781e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>31.09953703703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>1741699.680956015</v>
+        <v>1911434.13312513</v>
       </c>
     </row>
     <row r="11">
@@ -18220,28 +18220,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1376.118364665937</v>
+        <v>1513.344947144632</v>
       </c>
       <c r="AB11" t="n">
-        <v>1882.865856593484</v>
+        <v>2070.625320750382</v>
       </c>
       <c r="AC11" t="n">
-        <v>1703.167781859028</v>
+        <v>1873.007746278856</v>
       </c>
       <c r="AD11" t="n">
-        <v>1376118.364665937</v>
+        <v>1513344.947144632</v>
       </c>
       <c r="AE11" t="n">
-        <v>1882865.856593484</v>
+        <v>2070625.320750382</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.916388836491968e-07</v>
+        <v>1.43467587340407e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.89120370370371</v>
       </c>
       <c r="AH11" t="n">
-        <v>1703167.781859028</v>
+        <v>1873007.746278856</v>
       </c>
     </row>
     <row r="12">
@@ -18326,28 +18326,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1355.024936720201</v>
+        <v>1492.251519198896</v>
       </c>
       <c r="AB12" t="n">
-        <v>1854.004897901763</v>
+        <v>2041.764362058662</v>
       </c>
       <c r="AC12" t="n">
-        <v>1677.061272558235</v>
+        <v>1846.901236978063</v>
       </c>
       <c r="AD12" t="n">
-        <v>1355024.936720201</v>
+        <v>1492251.519198896</v>
       </c>
       <c r="AE12" t="n">
-        <v>1854004.897901763</v>
+        <v>2041764.362058662</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.976738416214372e-07</v>
+        <v>1.443407084677189e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.70601851851852</v>
       </c>
       <c r="AH12" t="n">
-        <v>1677061.272558235</v>
+        <v>1846901.236978063</v>
       </c>
     </row>
     <row r="13">
@@ -18432,28 +18432,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1334.357851682867</v>
+        <v>1471.584434161563</v>
       </c>
       <c r="AB13" t="n">
-        <v>1825.72728038624</v>
+        <v>2013.486744543139</v>
       </c>
       <c r="AC13" t="n">
-        <v>1651.482431170509</v>
+        <v>1821.322395590336</v>
       </c>
       <c r="AD13" t="n">
-        <v>1334357.851682867</v>
+        <v>1471584.434161562</v>
       </c>
       <c r="AE13" t="n">
-        <v>1825727.28038624</v>
+        <v>2013486.744543139</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.002597096809318e-06</v>
+        <v>1.450529914926312e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.55555555555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>1651482.431170509</v>
+        <v>1821322.395590336</v>
       </c>
     </row>
     <row r="14">
@@ -18538,28 +18538,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1315.653285336009</v>
+        <v>1452.709275614112</v>
       </c>
       <c r="AB14" t="n">
-        <v>1800.134867523241</v>
+        <v>1987.660919905293</v>
       </c>
       <c r="AC14" t="n">
-        <v>1628.332522271977</v>
+        <v>1797.961351409153</v>
       </c>
       <c r="AD14" t="n">
-        <v>1315653.285336009</v>
+        <v>1452709.275614112</v>
       </c>
       <c r="AE14" t="n">
-        <v>1800134.867523241</v>
+        <v>1987660.919905293</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.006408649212838e-06</v>
+        <v>1.45604436415144e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>31</v>
+        <v>30.43981481481481</v>
       </c>
       <c r="AH14" t="n">
-        <v>1628332.522271977</v>
+        <v>1797961.351409153</v>
       </c>
     </row>
     <row r="15">
@@ -18644,28 +18644,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1296.519517103705</v>
+        <v>1425.164193882622</v>
       </c>
       <c r="AB15" t="n">
-        <v>1773.955201705523</v>
+        <v>1949.972523877027</v>
       </c>
       <c r="AC15" t="n">
-        <v>1604.65140701651</v>
+        <v>1763.869883001829</v>
       </c>
       <c r="AD15" t="n">
-        <v>1296519.517103705</v>
+        <v>1425164.193882622</v>
       </c>
       <c r="AE15" t="n">
-        <v>1773955.201705523</v>
+        <v>1949972.523877027</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.010220201616358e-06</v>
+        <v>1.461558813376568e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>31</v>
+        <v>30.32407407407408</v>
       </c>
       <c r="AH15" t="n">
-        <v>1604651.40701651</v>
+        <v>1763869.883001829</v>
       </c>
     </row>
     <row r="16">
@@ -18750,28 +18750,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1281.418193896981</v>
+        <v>1410.062870675899</v>
       </c>
       <c r="AB16" t="n">
-        <v>1753.292905070724</v>
+        <v>1929.310227242228</v>
       </c>
       <c r="AC16" t="n">
-        <v>1585.961090972821</v>
+        <v>1745.17956695814</v>
       </c>
       <c r="AD16" t="n">
-        <v>1281418.193896981</v>
+        <v>1410062.870675899</v>
       </c>
       <c r="AE16" t="n">
-        <v>1753292.905070724</v>
+        <v>1929310.227242228</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.012549483640732e-06</v>
+        <v>1.464928754569701e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>31</v>
+        <v>30.25462962962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>1585961.090972821</v>
+        <v>1745179.56695814</v>
       </c>
     </row>
     <row r="17">
@@ -18856,28 +18856,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1263.416607977945</v>
+        <v>1392.061284756862</v>
       </c>
       <c r="AB17" t="n">
-        <v>1728.662341042378</v>
+        <v>1904.679663213882</v>
       </c>
       <c r="AC17" t="n">
-        <v>1563.681233406126</v>
+        <v>1722.899709391445</v>
       </c>
       <c r="AD17" t="n">
-        <v>1263416.607977945</v>
+        <v>1392061.284756862</v>
       </c>
       <c r="AE17" t="n">
-        <v>1728662.341042378</v>
+        <v>1904679.663213882</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.014878765665105e-06</v>
+        <v>1.468298695762835e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>31</v>
+        <v>30.18518518518519</v>
       </c>
       <c r="AH17" t="n">
-        <v>1563681.233406126</v>
+        <v>1722899.709391445</v>
       </c>
     </row>
     <row r="18">
@@ -18962,28 +18962,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1258.605965585905</v>
+        <v>1387.250642364822</v>
       </c>
       <c r="AB18" t="n">
-        <v>1722.080207891024</v>
+        <v>1898.097530062528</v>
       </c>
       <c r="AC18" t="n">
-        <v>1557.727289804656</v>
+        <v>1716.945765789975</v>
       </c>
       <c r="AD18" t="n">
-        <v>1258605.965585905</v>
+        <v>1387250.642364822</v>
       </c>
       <c r="AE18" t="n">
-        <v>1722080.207891024</v>
+        <v>1898097.530062528</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.016202221360772e-06</v>
+        <v>1.470213435077116e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>31</v>
+        <v>30.14467592592593</v>
       </c>
       <c r="AH18" t="n">
-        <v>1557727.289804656</v>
+        <v>1716945.765789975</v>
       </c>
     </row>
     <row r="19">
@@ -19068,28 +19068,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1260.94655655871</v>
+        <v>1389.591233337627</v>
       </c>
       <c r="AB19" t="n">
-        <v>1725.282707719602</v>
+        <v>1901.300029891107</v>
       </c>
       <c r="AC19" t="n">
-        <v>1560.624147544331</v>
+        <v>1719.84262352965</v>
       </c>
       <c r="AD19" t="n">
-        <v>1260946.55655871</v>
+        <v>1389591.233337627</v>
       </c>
       <c r="AE19" t="n">
-        <v>1725282.707719602</v>
+        <v>1901300.029891107</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.015990468449465e-06</v>
+        <v>1.469907076786831e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>31</v>
+        <v>30.15046296296297</v>
       </c>
       <c r="AH19" t="n">
-        <v>1560624.147544331</v>
+        <v>1719842.62352965</v>
       </c>
     </row>
     <row r="20">
@@ -19174,28 +19174,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1264.46656360537</v>
+        <v>1393.111240384287</v>
       </c>
       <c r="AB20" t="n">
-        <v>1730.098936652593</v>
+        <v>1906.116258824097</v>
       </c>
       <c r="AC20" t="n">
-        <v>1564.980722347577</v>
+        <v>1724.199198332896</v>
       </c>
       <c r="AD20" t="n">
-        <v>1264466.56360537</v>
+        <v>1393111.240384287</v>
       </c>
       <c r="AE20" t="n">
-        <v>1730098.936652593</v>
+        <v>1906116.258824097</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.015725777310332e-06</v>
+        <v>1.469524128923975e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>31</v>
+        <v>30.16203703703704</v>
       </c>
       <c r="AH20" t="n">
-        <v>1564980.722347577</v>
+        <v>1724199.198332896</v>
       </c>
     </row>
   </sheetData>
@@ -19471,28 +19471,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1875.493245446435</v>
+        <v>2053.345115521648</v>
       </c>
       <c r="AB2" t="n">
-        <v>2566.13259934224</v>
+        <v>2809.477374249891</v>
       </c>
       <c r="AC2" t="n">
-        <v>2321.224505650739</v>
+        <v>2541.344796777741</v>
       </c>
       <c r="AD2" t="n">
-        <v>1875493.245446435</v>
+        <v>2053345.115521648</v>
       </c>
       <c r="AE2" t="n">
-        <v>2566132.59934224</v>
+        <v>2809477.374249891</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.828954544699351e-07</v>
+        <v>1.175662058375293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.33217592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>2321224.505650739</v>
+        <v>2541344.796777741</v>
       </c>
     </row>
     <row r="3">
@@ -19577,28 +19577,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1361.027367632978</v>
+        <v>1506.666592975987</v>
       </c>
       <c r="AB3" t="n">
-        <v>1862.217688685187</v>
+        <v>2061.48770194865</v>
       </c>
       <c r="AC3" t="n">
-        <v>1684.490246116014</v>
+        <v>1864.742208990832</v>
       </c>
       <c r="AD3" t="n">
-        <v>1361027.367632978</v>
+        <v>1506666.592975987</v>
       </c>
       <c r="AE3" t="n">
-        <v>1862217.688685187</v>
+        <v>2061487.70194865</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.565413226449784e-07</v>
+        <v>1.436423386904473e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.64699074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1684490.246116014</v>
+        <v>1864742.208990832</v>
       </c>
     </row>
     <row r="4">
@@ -19683,28 +19683,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1219.834866747908</v>
+        <v>1357.207690657126</v>
       </c>
       <c r="AB4" t="n">
-        <v>1669.031880000714</v>
+        <v>1856.991438134571</v>
       </c>
       <c r="AC4" t="n">
-        <v>1509.741819874401</v>
+        <v>1679.76278158286</v>
       </c>
       <c r="AD4" t="n">
-        <v>1219834.866747908</v>
+        <v>1357207.690657126</v>
       </c>
       <c r="AE4" t="n">
-        <v>1669031.880000714</v>
+        <v>1856991.438134571</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.019768578075469e-06</v>
+        <v>1.53137078357209e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1509741.819874401</v>
+        <v>1679762.78158286</v>
       </c>
     </row>
     <row r="5">
@@ -19789,28 +19789,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1145.468597784766</v>
+        <v>1275.001545515949</v>
       </c>
       <c r="AB5" t="n">
-        <v>1567.280669997105</v>
+        <v>1744.513363673248</v>
       </c>
       <c r="AC5" t="n">
-        <v>1417.701602544817</v>
+        <v>1578.019456684156</v>
       </c>
       <c r="AD5" t="n">
-        <v>1145468.597784766</v>
+        <v>1275001.545515949</v>
       </c>
       <c r="AE5" t="n">
-        <v>1567280.669997105</v>
+        <v>1744513.363673248</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.051897645373029e-06</v>
+        <v>1.579618509596124e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.50462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1417701.602544816</v>
+        <v>1578019.456684156</v>
       </c>
     </row>
     <row r="6">
@@ -19895,28 +19895,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1088.883452035116</v>
+        <v>1218.331058911727</v>
       </c>
       <c r="AB6" t="n">
-        <v>1489.858377221987</v>
+        <v>1666.974303775932</v>
       </c>
       <c r="AC6" t="n">
-        <v>1347.668384729285</v>
+        <v>1507.880615836686</v>
       </c>
       <c r="AD6" t="n">
-        <v>1088883.452035116</v>
+        <v>1218331.058911727</v>
       </c>
       <c r="AE6" t="n">
-        <v>1489858.377221987</v>
+        <v>1666974.303775932</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.071885246953863e-06</v>
+        <v>1.60963358336152e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.92013888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1347668.384729285</v>
+        <v>1507880.615836686</v>
       </c>
     </row>
     <row r="7">
@@ -20001,28 +20001,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1048.439884068753</v>
+        <v>1177.887490945365</v>
       </c>
       <c r="AB7" t="n">
-        <v>1434.521703286117</v>
+        <v>1611.637629840063</v>
       </c>
       <c r="AC7" t="n">
-        <v>1297.612965288345</v>
+        <v>1457.825196395746</v>
       </c>
       <c r="AD7" t="n">
-        <v>1048439.884068753</v>
+        <v>1177887.490945365</v>
       </c>
       <c r="AE7" t="n">
-        <v>1434521.703286117</v>
+        <v>1611637.629840062</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.085916657805738e-06</v>
+        <v>1.630704337150983e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.52083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1297612.965288345</v>
+        <v>1457825.196395746</v>
       </c>
     </row>
     <row r="8">
@@ -20107,28 +20107,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1019.928578490302</v>
+        <v>1141.280465642265</v>
       </c>
       <c r="AB8" t="n">
-        <v>1395.511277163651</v>
+        <v>1561.550282832386</v>
       </c>
       <c r="AC8" t="n">
-        <v>1262.32563948353</v>
+        <v>1412.518115488449</v>
       </c>
       <c r="AD8" t="n">
-        <v>1019928.578490302</v>
+        <v>1141280.465642265</v>
       </c>
       <c r="AE8" t="n">
-        <v>1395511.277163651</v>
+        <v>1561550.282832386</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.09422096218746e-06</v>
+        <v>1.643174783271277e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.28935185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>1262325.63948353</v>
+        <v>1412518.115488449</v>
       </c>
     </row>
     <row r="9">
@@ -20213,28 +20213,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1013.810065621775</v>
+        <v>1135.161952773739</v>
       </c>
       <c r="AB9" t="n">
-        <v>1387.139657927196</v>
+        <v>1553.17866359593</v>
       </c>
       <c r="AC9" t="n">
-        <v>1254.752995837361</v>
+        <v>1404.94547184228</v>
       </c>
       <c r="AD9" t="n">
-        <v>1013810.065621775</v>
+        <v>1135161.952773739</v>
       </c>
       <c r="AE9" t="n">
-        <v>1387139.657927196</v>
+        <v>1553178.66359593</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.095767280934401e-06</v>
+        <v>1.645496866341952e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.24305555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1254752.995837361</v>
+        <v>1404945.47184228</v>
       </c>
     </row>
     <row r="10">
@@ -20319,28 +20319,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1019.211297849657</v>
+        <v>1140.56318500162</v>
       </c>
       <c r="AB10" t="n">
-        <v>1394.529862146932</v>
+        <v>1560.568867815666</v>
       </c>
       <c r="AC10" t="n">
-        <v>1261.437889338582</v>
+        <v>1411.6303653435</v>
       </c>
       <c r="AD10" t="n">
-        <v>1019211.297849657</v>
+        <v>1140563.18500162</v>
       </c>
       <c r="AE10" t="n">
-        <v>1394529.862146932</v>
+        <v>1560568.867815666</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.095423654546192e-06</v>
+        <v>1.644980847881802e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.25462962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>1261437.889338582</v>
+        <v>1411630.3653435</v>
       </c>
     </row>
   </sheetData>
@@ -20616,28 +20616,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1431.779800722606</v>
+        <v>1588.68770750905</v>
       </c>
       <c r="AB2" t="n">
-        <v>1959.024289015468</v>
+        <v>2173.712609368978</v>
       </c>
       <c r="AC2" t="n">
-        <v>1772.057760379689</v>
+        <v>1966.256528755611</v>
       </c>
       <c r="AD2" t="n">
-        <v>1431779.800722606</v>
+        <v>1588687.70750905</v>
       </c>
       <c r="AE2" t="n">
-        <v>1959024.289015468</v>
+        <v>2173712.609368978</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.96890325625907e-07</v>
+        <v>1.375602621032208e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.49537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1772057.760379689</v>
+        <v>1966256.528755611</v>
       </c>
     </row>
     <row r="3">
@@ -20722,28 +20722,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1109.338796644794</v>
+        <v>1242.757468309569</v>
       </c>
       <c r="AB3" t="n">
-        <v>1517.846282143063</v>
+        <v>1700.395594731188</v>
       </c>
       <c r="AC3" t="n">
-        <v>1372.985163285965</v>
+        <v>1538.112225690249</v>
       </c>
       <c r="AD3" t="n">
-        <v>1109338.796644794</v>
+        <v>1242757.468309569</v>
       </c>
       <c r="AE3" t="n">
-        <v>1517846.282143063</v>
+        <v>1700395.594731188</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.046153302526001e-06</v>
+        <v>1.604534226581136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.00347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1372985.163285965</v>
+        <v>1538112.225690249</v>
       </c>
     </row>
     <row r="4">
@@ -20828,28 +20828,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>999.0026458766197</v>
+        <v>1124.563125549315</v>
       </c>
       <c r="AB4" t="n">
-        <v>1366.879492974619</v>
+        <v>1538.676880600217</v>
       </c>
       <c r="AC4" t="n">
-        <v>1236.426432592539</v>
+        <v>1391.827718662297</v>
       </c>
       <c r="AD4" t="n">
-        <v>999002.6458766197</v>
+        <v>1124563.125549315</v>
       </c>
       <c r="AE4" t="n">
-        <v>1366879.492974619</v>
+        <v>1538676.880600217</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.099308103652294e-06</v>
+        <v>1.686060229996042e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.40625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1236426.432592538</v>
+        <v>1391827.718662297</v>
       </c>
     </row>
     <row r="5">
@@ -20934,28 +20934,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>931.7766683311477</v>
+        <v>1057.422399349863</v>
       </c>
       <c r="AB5" t="n">
-        <v>1274.897944696091</v>
+        <v>1446.811976974338</v>
       </c>
       <c r="AC5" t="n">
-        <v>1153.223474184799</v>
+        <v>1308.730272505269</v>
       </c>
       <c r="AD5" t="n">
-        <v>931776.6683311476</v>
+        <v>1057422.399349863</v>
       </c>
       <c r="AE5" t="n">
-        <v>1274897.944696091</v>
+        <v>1446811.976974338</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.126273277736564e-06</v>
+        <v>1.72741797808082e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.65393518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>1153223.474184799</v>
+        <v>1308730.272505269</v>
       </c>
     </row>
     <row r="6">
@@ -21040,28 +21040,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>913.3507948304738</v>
+        <v>1038.825933648597</v>
       </c>
       <c r="AB6" t="n">
-        <v>1249.686851680301</v>
+        <v>1421.367472183701</v>
       </c>
       <c r="AC6" t="n">
-        <v>1130.418492502445</v>
+        <v>1285.714155540264</v>
       </c>
       <c r="AD6" t="n">
-        <v>913350.7948304737</v>
+        <v>1038825.933648597</v>
       </c>
       <c r="AE6" t="n">
-        <v>1249686.851680301</v>
+        <v>1421367.472183701</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.133074228722419e-06</v>
+        <v>1.737848914544681e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.46875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1130418.492502445</v>
+        <v>1285714.155540264</v>
       </c>
     </row>
     <row r="7">
@@ -21146,28 +21146,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>916.3194467321606</v>
+        <v>1041.794585550284</v>
       </c>
       <c r="AB7" t="n">
-        <v>1253.748692179868</v>
+        <v>1425.429312683267</v>
       </c>
       <c r="AC7" t="n">
-        <v>1134.092676645562</v>
+        <v>1289.388339683381</v>
       </c>
       <c r="AD7" t="n">
-        <v>916319.4467321606</v>
+        <v>1041794.585550284</v>
       </c>
       <c r="AE7" t="n">
-        <v>1253748.692179868</v>
+        <v>1425429.312683268</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.133611145905513e-06</v>
+        <v>1.738672409528669e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.45717592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>1134092.676645562</v>
+        <v>1289388.339683381</v>
       </c>
     </row>
   </sheetData>
@@ -39336,28 +39336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1157.402251169652</v>
+        <v>1295.345681445277</v>
       </c>
       <c r="AB2" t="n">
-        <v>1583.608821033936</v>
+        <v>1772.349107971687</v>
       </c>
       <c r="AC2" t="n">
-        <v>1432.471417763396</v>
+        <v>1603.198596614465</v>
       </c>
       <c r="AD2" t="n">
-        <v>1157402.251169652</v>
+        <v>1295345.681445277</v>
       </c>
       <c r="AE2" t="n">
-        <v>1583608.821033936</v>
+        <v>1772349.107971687</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.89936639133988e-07</v>
+        <v>1.546756471784777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.07638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1432471.417763396</v>
+        <v>1603198.596614465</v>
       </c>
     </row>
     <row r="3">
@@ -39442,28 +39442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>918.1772122808941</v>
+        <v>1048.366952103305</v>
       </c>
       <c r="AB3" t="n">
-        <v>1256.290568962477</v>
+        <v>1434.421914553459</v>
       </c>
       <c r="AC3" t="n">
-        <v>1136.391960275585</v>
+        <v>1297.522700252278</v>
       </c>
       <c r="AD3" t="n">
-        <v>918177.212280894</v>
+        <v>1048366.952103305</v>
       </c>
       <c r="AE3" t="n">
-        <v>1256290.568962476</v>
+        <v>1434421.914553459</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.118854888566748e-06</v>
+        <v>1.748188693563868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.92129629629629</v>
       </c>
       <c r="AH3" t="n">
-        <v>1136391.960275585</v>
+        <v>1297522.700252278</v>
       </c>
     </row>
     <row r="4">
@@ -39548,28 +39548,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>840.0301014366712</v>
+        <v>962.6369220235621</v>
       </c>
       <c r="AB4" t="n">
-        <v>1149.3662442982</v>
+        <v>1317.122305256358</v>
       </c>
       <c r="AC4" t="n">
-        <v>1039.672343088035</v>
+        <v>1191.418001035457</v>
       </c>
       <c r="AD4" t="n">
-        <v>840030.1014366712</v>
+        <v>962636.9220235621</v>
       </c>
       <c r="AE4" t="n">
-        <v>1149366.2442982</v>
+        <v>1317122.305256358</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.158597996577613e-06</v>
+        <v>1.810286515883512e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.82175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>1039672.343088035</v>
+        <v>1191418.001035457</v>
       </c>
     </row>
     <row r="5">
@@ -39654,28 +39654,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>839.743916122227</v>
+        <v>962.3507367091178</v>
       </c>
       <c r="AB5" t="n">
-        <v>1148.974672925373</v>
+        <v>1316.730733883531</v>
       </c>
       <c r="AC5" t="n">
-        <v>1039.318142737456</v>
+        <v>1191.063800684878</v>
       </c>
       <c r="AD5" t="n">
-        <v>839743.916122227</v>
+        <v>962350.7367091178</v>
       </c>
       <c r="AE5" t="n">
-        <v>1148974.672925373</v>
+        <v>1316730.733883531</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.160943086801857e-06</v>
+        <v>1.81395067310113e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.76388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1039318.142737456</v>
+        <v>1191063.800684878</v>
       </c>
     </row>
   </sheetData>
@@ -39951,28 +39951,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>710.9187815811595</v>
+        <v>834.6227032317954</v>
       </c>
       <c r="AB2" t="n">
-        <v>972.7104404824598</v>
+        <v>1141.967603516717</v>
       </c>
       <c r="AC2" t="n">
-        <v>879.8763212504908</v>
+        <v>1032.979818198679</v>
       </c>
       <c r="AD2" t="n">
-        <v>710918.7815811594</v>
+        <v>834622.7032317955</v>
       </c>
       <c r="AE2" t="n">
-        <v>972710.4404824598</v>
+        <v>1141967.603516717</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.182260072210065e-06</v>
+        <v>1.926701022792653e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.42476851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>879876.3212504908</v>
+        <v>1032979.818198679</v>
       </c>
     </row>
     <row r="3">
@@ -40057,28 +40057,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>706.7203004385433</v>
+        <v>823.3031476391579</v>
       </c>
       <c r="AB3" t="n">
-        <v>966.9658933592173</v>
+        <v>1126.479688171323</v>
       </c>
       <c r="AC3" t="n">
-        <v>874.6800256421676</v>
+        <v>1018.970047756423</v>
       </c>
       <c r="AD3" t="n">
-        <v>706720.3004385433</v>
+        <v>823303.1476391579</v>
       </c>
       <c r="AE3" t="n">
-        <v>966965.8933592172</v>
+        <v>1126479.688171322</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.191135799123402e-06</v>
+        <v>1.941165583107193e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.18171296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>874680.0256421677</v>
+        <v>1018970.047756423</v>
       </c>
     </row>
   </sheetData>
@@ -40354,28 +40354,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2375.348418564399</v>
+        <v>2574.395773051136</v>
       </c>
       <c r="AB2" t="n">
-        <v>3250.056499256306</v>
+        <v>3522.401871014599</v>
       </c>
       <c r="AC2" t="n">
-        <v>2939.875668450107</v>
+        <v>3186.228780166908</v>
       </c>
       <c r="AD2" t="n">
-        <v>2375348.418564399</v>
+        <v>2574395.773051136</v>
       </c>
       <c r="AE2" t="n">
-        <v>3250056.499256306</v>
+        <v>3522401.871014599</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.880377517011437e-07</v>
+        <v>1.016493767319343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.59143518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>2939875.668450107</v>
+        <v>3186228.780166908</v>
       </c>
     </row>
     <row r="3">
@@ -40460,28 +40460,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1620.716244331392</v>
+        <v>1778.107028421431</v>
       </c>
       <c r="AB3" t="n">
-        <v>2217.535466448626</v>
+        <v>2432.884480831957</v>
       </c>
       <c r="AC3" t="n">
-        <v>2005.896993861343</v>
+        <v>2200.693400556169</v>
       </c>
       <c r="AD3" t="n">
-        <v>1620716.244331392</v>
+        <v>1778107.028421431</v>
       </c>
       <c r="AE3" t="n">
-        <v>2217535.466448626</v>
+        <v>2432884.480831957</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.810273279773521e-07</v>
+        <v>1.301612862830219e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.38310185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>2005896.993861343</v>
+        <v>2200693.400556169</v>
       </c>
     </row>
     <row r="4">
@@ -40566,28 +40566,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1426.533783178292</v>
+        <v>1567.586109045052</v>
       </c>
       <c r="AB4" t="n">
-        <v>1951.846456373378</v>
+        <v>2144.840471413714</v>
       </c>
       <c r="AC4" t="n">
-        <v>1765.564970010809</v>
+        <v>1940.139907124497</v>
       </c>
       <c r="AD4" t="n">
-        <v>1426533.783178292</v>
+        <v>1567586.109045052</v>
       </c>
       <c r="AE4" t="n">
-        <v>1951846.456373378</v>
+        <v>2144840.471413714</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.53149150110424e-07</v>
+        <v>1.408164258454547e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.62847222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1765564.970010809</v>
+        <v>1940139.907124497</v>
       </c>
     </row>
     <row r="5">
@@ -40672,28 +40672,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1335.55640914861</v>
+        <v>1476.352801960206</v>
       </c>
       <c r="AB5" t="n">
-        <v>1827.367199587493</v>
+        <v>2020.011035730785</v>
       </c>
       <c r="AC5" t="n">
-        <v>1652.965838784835</v>
+        <v>1827.224017583933</v>
       </c>
       <c r="AD5" t="n">
-        <v>1335556.40914861</v>
+        <v>1476352.801960206</v>
       </c>
       <c r="AE5" t="n">
-        <v>1827367.199587493</v>
+        <v>2020011.035730785</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.90871854313667e-07</v>
+        <v>1.463895057548378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.34953703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>1652965.838784835</v>
+        <v>1827224.017583933</v>
       </c>
     </row>
     <row r="6">
@@ -40778,28 +40778,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1273.782902060959</v>
+        <v>1406.538032288498</v>
       </c>
       <c r="AB6" t="n">
-        <v>1742.845961935375</v>
+        <v>1924.487387855692</v>
       </c>
       <c r="AC6" t="n">
-        <v>1576.511189427933</v>
+        <v>1740.817012593757</v>
       </c>
       <c r="AD6" t="n">
-        <v>1273782.902060959</v>
+        <v>1406538.032288498</v>
       </c>
       <c r="AE6" t="n">
-        <v>1742845.961935375</v>
+        <v>1924487.387855692</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.013970778913891e-06</v>
+        <v>1.498020965363544e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.61458333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1576511.189427933</v>
+        <v>1740817.012593757</v>
       </c>
     </row>
     <row r="7">
@@ -40884,28 +40884,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1234.836037335125</v>
+        <v>1367.420575362072</v>
       </c>
       <c r="AB7" t="n">
-        <v>1689.557143403084</v>
+        <v>1870.965157548553</v>
       </c>
       <c r="AC7" t="n">
-        <v>1528.308180945037</v>
+        <v>1692.402868828209</v>
       </c>
       <c r="AD7" t="n">
-        <v>1234836.037335125</v>
+        <v>1367420.575362072</v>
       </c>
       <c r="AE7" t="n">
-        <v>1689557.143403084</v>
+        <v>1870965.157548553</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.029037703353365e-06</v>
+        <v>1.52028055031732e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.15162037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1528308.180945037</v>
+        <v>1692402.868828209</v>
       </c>
     </row>
     <row r="8">
@@ -40990,28 +40990,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1191.445399124196</v>
+        <v>1324.115188497163</v>
       </c>
       <c r="AB8" t="n">
-        <v>1630.188157943034</v>
+        <v>1811.712816741152</v>
       </c>
       <c r="AC8" t="n">
-        <v>1474.605288132399</v>
+        <v>1638.805488266284</v>
       </c>
       <c r="AD8" t="n">
-        <v>1191445.399124196</v>
+        <v>1324115.188497163</v>
       </c>
       <c r="AE8" t="n">
-        <v>1630188.157943034</v>
+        <v>1811712.816741152</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.041611938087779e-06</v>
+        <v>1.538857483348597e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.77546296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>1474605.288132399</v>
+        <v>1638805.488266284</v>
       </c>
     </row>
     <row r="9">
@@ -41096,28 +41096,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1161.902398358594</v>
+        <v>1294.572187731561</v>
       </c>
       <c r="AB9" t="n">
-        <v>1589.766120950329</v>
+        <v>1771.290779748447</v>
       </c>
       <c r="AC9" t="n">
-        <v>1438.041073617593</v>
+        <v>1602.241273751478</v>
       </c>
       <c r="AD9" t="n">
-        <v>1161902.398358594</v>
+        <v>1294572.187731561</v>
       </c>
       <c r="AE9" t="n">
-        <v>1589766.120950329</v>
+        <v>1771290.779748447</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.049477758934858e-06</v>
+        <v>1.550478296081819e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.54398148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>1438041.073617593</v>
+        <v>1602241.273751478</v>
       </c>
     </row>
     <row r="10">
@@ -41202,28 +41202,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1128.677764535585</v>
+        <v>1253.050447777882</v>
       </c>
       <c r="AB10" t="n">
-        <v>1544.306711186293</v>
+        <v>1714.47890333394</v>
       </c>
       <c r="AC10" t="n">
-        <v>1396.920246118754</v>
+        <v>1550.851443086002</v>
       </c>
       <c r="AD10" t="n">
-        <v>1128677.764535585</v>
+        <v>1253050.447777882</v>
       </c>
       <c r="AE10" t="n">
-        <v>1544306.711186293</v>
+        <v>1714478.90333394</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.057343579781936e-06</v>
+        <v>1.562099108815041e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.31828703703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>1396920.246118754</v>
+        <v>1550851.443086002</v>
       </c>
     </row>
     <row r="11">
@@ -41308,28 +41308,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1110.034184609537</v>
+        <v>1234.406867851834</v>
       </c>
       <c r="AB11" t="n">
-        <v>1518.797742634777</v>
+        <v>1688.969934782424</v>
       </c>
       <c r="AC11" t="n">
-        <v>1373.845817723733</v>
+        <v>1527.77701469098</v>
       </c>
       <c r="AD11" t="n">
-        <v>1110034.184609537</v>
+        <v>1234406.867851835</v>
       </c>
       <c r="AE11" t="n">
-        <v>1518797.742634777</v>
+        <v>1688969.934782424</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.062162779878386e-06</v>
+        <v>1.569218902531873e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.17939814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>1373845.817723733</v>
+        <v>1527777.01469098</v>
       </c>
     </row>
     <row r="12">
@@ -41414,28 +41414,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1108.460486844163</v>
+        <v>1232.83317008646</v>
       </c>
       <c r="AB12" t="n">
-        <v>1516.644539925546</v>
+        <v>1686.816732073193</v>
       </c>
       <c r="AC12" t="n">
-        <v>1371.898113659032</v>
+        <v>1525.829310626279</v>
       </c>
       <c r="AD12" t="n">
-        <v>1108460.486844163</v>
+        <v>1232833.17008646</v>
       </c>
       <c r="AE12" t="n">
-        <v>1516644.539925546</v>
+        <v>1686816.732073193</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.062550531610284e-06</v>
+        <v>1.569791759497596e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.16782407407408</v>
       </c>
       <c r="AH12" t="n">
-        <v>1371898.113659032</v>
+        <v>1525829.31062628</v>
       </c>
     </row>
     <row r="13">
@@ -41520,28 +41520,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1112.058356336593</v>
+        <v>1236.43103957889</v>
       </c>
       <c r="AB13" t="n">
-        <v>1521.567303691888</v>
+        <v>1691.739495839535</v>
       </c>
       <c r="AC13" t="n">
-        <v>1376.351055760657</v>
+        <v>1530.282252727904</v>
       </c>
       <c r="AD13" t="n">
-        <v>1112058.356336593</v>
+        <v>1236431.03957889</v>
       </c>
       <c r="AE13" t="n">
-        <v>1521567.303691888</v>
+        <v>1691739.495839535</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.0622735660875e-06</v>
+        <v>1.569382575950651e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.17939814814815</v>
       </c>
       <c r="AH13" t="n">
-        <v>1376351.055760657</v>
+        <v>1530282.252727904</v>
       </c>
     </row>
   </sheetData>
@@ -41817,28 +41817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3198.279908197625</v>
+        <v>3428.391852696112</v>
       </c>
       <c r="AB2" t="n">
-        <v>4376.027668547583</v>
+        <v>4690.876982832943</v>
       </c>
       <c r="AC2" t="n">
-        <v>3958.385729654643</v>
+        <v>4243.186267278385</v>
       </c>
       <c r="AD2" t="n">
-        <v>3198279.908197625</v>
+        <v>3428391.852696112</v>
       </c>
       <c r="AE2" t="n">
-        <v>4376027.668547583</v>
+        <v>4690876.982832943</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.80545199556383e-07</v>
+        <v>8.430497509678263e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.21180555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3958385.729654643</v>
+        <v>4243186.267278385</v>
       </c>
     </row>
     <row r="3">
@@ -41923,28 +41923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1978.898331980046</v>
+        <v>2149.392647939607</v>
       </c>
       <c r="AB3" t="n">
-        <v>2707.616000647981</v>
+        <v>2940.893845422218</v>
       </c>
       <c r="AC3" t="n">
-        <v>2449.204929709061</v>
+        <v>2660.219064385557</v>
       </c>
       <c r="AD3" t="n">
-        <v>1978898.331980046</v>
+        <v>2149392.647939607</v>
       </c>
       <c r="AE3" t="n">
-        <v>2707616.000647981</v>
+        <v>2940893.845422219</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.943797039167058e-07</v>
+        <v>1.153573592672232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.88310185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>2449204.929709061</v>
+        <v>2660219.064385558</v>
       </c>
     </row>
     <row r="4">
@@ -42029,28 +42029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1710.005579140945</v>
+        <v>1863.356678073072</v>
       </c>
       <c r="AB4" t="n">
-        <v>2339.705073502495</v>
+        <v>2549.526812434441</v>
       </c>
       <c r="AC4" t="n">
-        <v>2116.406905084111</v>
+        <v>2306.203551739052</v>
       </c>
       <c r="AD4" t="n">
-        <v>1710005.579140945</v>
+        <v>1863356.678073072</v>
       </c>
       <c r="AE4" t="n">
-        <v>2339705.073502495</v>
+        <v>2549526.81243444</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.765293050676134e-07</v>
+        <v>1.272868698109845e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.24305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>2116406.905084111</v>
+        <v>2306203.551739052</v>
       </c>
     </row>
     <row r="5">
@@ -42135,28 +42135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1579.145297452962</v>
+        <v>1724.138005744975</v>
       </c>
       <c r="AB5" t="n">
-        <v>2160.656262948818</v>
+        <v>2359.041683060789</v>
       </c>
       <c r="AC5" t="n">
-        <v>1954.446261713093</v>
+        <v>2133.898055765263</v>
       </c>
       <c r="AD5" t="n">
-        <v>1579145.297452962</v>
+        <v>1724138.005744975</v>
       </c>
       <c r="AE5" t="n">
-        <v>2160656.262948818</v>
+        <v>2359041.683060789</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.209402655338614e-07</v>
+        <v>1.337360918853247e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.54166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1954446.261713093</v>
+        <v>2133898.055765263</v>
       </c>
     </row>
     <row r="6">
@@ -42241,28 +42241,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1503.336083683134</v>
+        <v>1648.243451120575</v>
       </c>
       <c r="AB6" t="n">
-        <v>2056.930752202468</v>
+        <v>2255.199405192242</v>
       </c>
       <c r="AC6" t="n">
-        <v>1860.620168132707</v>
+        <v>2039.966339152938</v>
       </c>
       <c r="AD6" t="n">
-        <v>1503336.083683134</v>
+        <v>1648243.451120575</v>
       </c>
       <c r="AE6" t="n">
-        <v>2056930.752202468</v>
+        <v>2255199.405192242</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.482700873592446e-07</v>
+        <v>1.377048439310724e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.57523148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>1860620.168132707</v>
+        <v>2039966.339152938</v>
       </c>
     </row>
     <row r="7">
@@ -42347,28 +42347,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1449.664742620917</v>
+        <v>1594.486769203786</v>
       </c>
       <c r="AB7" t="n">
-        <v>1983.495255548687</v>
+        <v>2181.647141416262</v>
       </c>
       <c r="AC7" t="n">
-        <v>1794.193252212195</v>
+        <v>1973.433800200487</v>
       </c>
       <c r="AD7" t="n">
-        <v>1449664.742620917</v>
+        <v>1594486.769203786</v>
       </c>
       <c r="AE7" t="n">
-        <v>1983495.255548687</v>
+        <v>2181647.141416262</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.660451472573942e-07</v>
+        <v>1.402860830545763e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.97916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1794193.252212195</v>
+        <v>1973433.800200487</v>
       </c>
     </row>
     <row r="8">
@@ -42453,28 +42453,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1413.000578368207</v>
+        <v>1549.464303819513</v>
       </c>
       <c r="AB8" t="n">
-        <v>1933.32972850936</v>
+        <v>2120.045418026509</v>
       </c>
       <c r="AC8" t="n">
-        <v>1748.815452665742</v>
+        <v>1917.711258832491</v>
       </c>
       <c r="AD8" t="n">
-        <v>1413000.578368207</v>
+        <v>1549464.303819513</v>
       </c>
       <c r="AE8" t="n">
-        <v>1933329.72850936</v>
+        <v>2120045.418026509</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.797100581700859e-07</v>
+        <v>1.422704590774502e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.52777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1748815.452665742</v>
+        <v>1917711.258832491</v>
       </c>
     </row>
     <row r="9">
@@ -42559,28 +42559,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1383.37648828519</v>
+        <v>1519.669621535904</v>
       </c>
       <c r="AB9" t="n">
-        <v>1892.796741535161</v>
+        <v>2079.279019277462</v>
       </c>
       <c r="AC9" t="n">
-        <v>1712.150877079956</v>
+        <v>1880.835547964053</v>
       </c>
       <c r="AD9" t="n">
-        <v>1383376.48828519</v>
+        <v>1519669.621535904</v>
       </c>
       <c r="AE9" t="n">
-        <v>1892796.741535161</v>
+        <v>2079279.019277463</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.903323912623735e-07</v>
+        <v>1.438130013764811e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.19212962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>1712150.877079956</v>
+        <v>1880835.547964053</v>
       </c>
     </row>
     <row r="10">
@@ -42665,28 +42665,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1349.575313958601</v>
+        <v>1485.953698555335</v>
       </c>
       <c r="AB10" t="n">
-        <v>1846.548483618953</v>
+        <v>2033.147406013905</v>
       </c>
       <c r="AC10" t="n">
-        <v>1670.316487989434</v>
+        <v>1839.106671124243</v>
       </c>
       <c r="AD10" t="n">
-        <v>1349575.313958601</v>
+        <v>1485953.698555335</v>
       </c>
       <c r="AE10" t="n">
-        <v>1846548.483618953</v>
+        <v>2033147.406013905</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.98125660767268e-07</v>
+        <v>1.449447158270263e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.94907407407407</v>
       </c>
       <c r="AH10" t="n">
-        <v>1670316.487989434</v>
+        <v>1839106.671124243</v>
       </c>
     </row>
     <row r="11">
@@ -42771,28 +42771,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1327.112259281181</v>
+        <v>1463.490643877916</v>
       </c>
       <c r="AB11" t="n">
-        <v>1815.813541209277</v>
+        <v>2002.412463604228</v>
       </c>
       <c r="AC11" t="n">
-        <v>1642.514845346574</v>
+        <v>1811.305028481383</v>
       </c>
       <c r="AD11" t="n">
-        <v>1327112.259281181</v>
+        <v>1463490.643877916</v>
       </c>
       <c r="AE11" t="n">
-        <v>1815813.541209277</v>
+        <v>2002412.463604228</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.004317573524581e-06</v>
+        <v>1.458438862123911e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.75810185185185</v>
       </c>
       <c r="AH11" t="n">
-        <v>1642514.845346574</v>
+        <v>1811305.028481384</v>
       </c>
     </row>
     <row r="12">
@@ -42877,28 +42877,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1302.408680836296</v>
+        <v>1438.787065433031</v>
       </c>
       <c r="AB12" t="n">
-        <v>1782.013015336022</v>
+        <v>1968.611937730973</v>
       </c>
       <c r="AC12" t="n">
-        <v>1611.940194223327</v>
+        <v>1780.730377358136</v>
       </c>
       <c r="AD12" t="n">
-        <v>1302408.680836296</v>
+        <v>1438787.065433031</v>
       </c>
       <c r="AE12" t="n">
-        <v>1782013.015336022</v>
+        <v>1968611.937730973</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.009868943582862e-06</v>
+        <v>1.466500389716836e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.59027777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1611940.194223327</v>
+        <v>1780730.377358136</v>
       </c>
     </row>
     <row r="13">
@@ -42983,28 +42983,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1281.740492866749</v>
+        <v>1417.948285262892</v>
       </c>
       <c r="AB13" t="n">
-        <v>1753.733888739987</v>
+        <v>1940.099399360091</v>
       </c>
       <c r="AC13" t="n">
-        <v>1586.359987779614</v>
+        <v>1754.939035631772</v>
       </c>
       <c r="AD13" t="n">
-        <v>1281740.492866749</v>
+        <v>1417948.285262892</v>
       </c>
       <c r="AE13" t="n">
-        <v>1753733.888739987</v>
+        <v>1940099.399360091</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.014459499592595e-06</v>
+        <v>1.473166652918678e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.45138888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>1586359.987779614</v>
+        <v>1754939.035631772</v>
       </c>
     </row>
     <row r="14">
@@ -43089,28 +43089,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1261.264525126279</v>
+        <v>1389.114016390858</v>
       </c>
       <c r="AB14" t="n">
-        <v>1725.717766341534</v>
+        <v>1900.647080611211</v>
       </c>
       <c r="AC14" t="n">
-        <v>1561.017684781994</v>
+        <v>1719.251990812608</v>
       </c>
       <c r="AD14" t="n">
-        <v>1261264.525126279</v>
+        <v>1389114.016390858</v>
       </c>
       <c r="AE14" t="n">
-        <v>1725717.766341534</v>
+        <v>1900647.080611211</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.019210191277085e-06</v>
+        <v>1.4800654601857e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>31</v>
+        <v>30.30671296296296</v>
       </c>
       <c r="AH14" t="n">
-        <v>1561017.684781994</v>
+        <v>1719251.990812608</v>
       </c>
     </row>
     <row r="15">
@@ -43195,28 +43195,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1245.322751776685</v>
+        <v>1373.172243041264</v>
       </c>
       <c r="AB15" t="n">
-        <v>1703.905528743215</v>
+        <v>1878.834843012893</v>
       </c>
       <c r="AC15" t="n">
-        <v>1541.287176526392</v>
+        <v>1699.521482557006</v>
       </c>
       <c r="AD15" t="n">
-        <v>1245322.751776685</v>
+        <v>1373172.243041264</v>
       </c>
       <c r="AE15" t="n">
-        <v>1703905.528743215</v>
+        <v>1878834.843012893</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.021238576490688e-06</v>
+        <v>1.483011018344654e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>31</v>
+        <v>30.2488425925926</v>
       </c>
       <c r="AH15" t="n">
-        <v>1541287.176526392</v>
+        <v>1699521.482557006</v>
       </c>
     </row>
     <row r="16">
@@ -43301,28 +43301,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1233.205940094948</v>
+        <v>1361.055431359526</v>
       </c>
       <c r="AB16" t="n">
-        <v>1687.326772444258</v>
+        <v>1862.256086713935</v>
       </c>
       <c r="AC16" t="n">
-        <v>1526.290673460175</v>
+        <v>1684.52497949079</v>
       </c>
       <c r="AD16" t="n">
-        <v>1233205.940094948</v>
+        <v>1361055.431359526</v>
       </c>
       <c r="AE16" t="n">
-        <v>1687326.772444258</v>
+        <v>1862256.086713935</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.024227775752839e-06</v>
+        <v>1.487351840894691e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>31</v>
+        <v>30.16203703703704</v>
       </c>
       <c r="AH16" t="n">
-        <v>1526290.673460176</v>
+        <v>1684524.97949079</v>
       </c>
     </row>
     <row r="17">
@@ -43407,28 +43407,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1227.176490504611</v>
+        <v>1355.02598176919</v>
       </c>
       <c r="AB17" t="n">
-        <v>1679.077013514217</v>
+        <v>1854.006327783894</v>
       </c>
       <c r="AC17" t="n">
-        <v>1518.828259943808</v>
+        <v>1677.062565974423</v>
       </c>
       <c r="AD17" t="n">
-        <v>1227176.490504611</v>
+        <v>1355025.98176919</v>
       </c>
       <c r="AE17" t="n">
-        <v>1679077.013514217</v>
+        <v>1854006.327783894</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.024814939893619e-06</v>
+        <v>1.488204502467019e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>31</v>
+        <v>30.14467592592593</v>
       </c>
       <c r="AH17" t="n">
-        <v>1518828.259943808</v>
+        <v>1677062.565974423</v>
       </c>
     </row>
     <row r="18">
@@ -43513,28 +43513,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1230.564731945979</v>
+        <v>1358.414223210559</v>
       </c>
       <c r="AB18" t="n">
-        <v>1683.71295493296</v>
+        <v>1858.642269202637</v>
       </c>
       <c r="AC18" t="n">
-        <v>1523.021753620132</v>
+        <v>1681.256059650746</v>
       </c>
       <c r="AD18" t="n">
-        <v>1230564.731945979</v>
+        <v>1358414.223210559</v>
       </c>
       <c r="AE18" t="n">
-        <v>1683712.95493296</v>
+        <v>1858642.269202637</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.024708182777113e-06</v>
+        <v>1.488049473090232e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>31</v>
+        <v>30.14467592592593</v>
       </c>
       <c r="AH18" t="n">
-        <v>1523021.753620132</v>
+        <v>1681256.059650746</v>
       </c>
     </row>
   </sheetData>
@@ -43810,28 +43810,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>636.9981504898036</v>
+        <v>764.9094202453603</v>
       </c>
       <c r="AB2" t="n">
-        <v>871.5689718751835</v>
+        <v>1046.582814201691</v>
       </c>
       <c r="AC2" t="n">
-        <v>788.3876524541502</v>
+        <v>946.6984193024866</v>
       </c>
       <c r="AD2" t="n">
-        <v>636998.1504898036</v>
+        <v>764909.4202453602</v>
       </c>
       <c r="AE2" t="n">
-        <v>871568.9718751835</v>
+        <v>1046582.814201691</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.173408984504588e-06</v>
+        <v>1.956002866586213e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.82523148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>788387.6524541501</v>
+        <v>946698.4193024866</v>
       </c>
     </row>
   </sheetData>
@@ -44107,28 +44107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1572.344958443502</v>
+        <v>1738.967637226492</v>
       </c>
       <c r="AB2" t="n">
-        <v>2151.351739106292</v>
+        <v>2379.332239090968</v>
       </c>
       <c r="AC2" t="n">
-        <v>1946.029748567116</v>
+        <v>2152.252109605896</v>
       </c>
       <c r="AD2" t="n">
-        <v>1572344.958443502</v>
+        <v>1738967.637226492</v>
       </c>
       <c r="AE2" t="n">
-        <v>2151351.739106292</v>
+        <v>2379332.239090968</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.56245881154195e-07</v>
+        <v>1.303126276350623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.7337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1946029.748567116</v>
+        <v>2152252.109605896</v>
       </c>
     </row>
     <row r="3">
@@ -44213,28 +44213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1191.92626186437</v>
+        <v>1326.94945845324</v>
       </c>
       <c r="AB3" t="n">
-        <v>1630.846095558307</v>
+        <v>1815.590789934222</v>
       </c>
       <c r="AC3" t="n">
-        <v>1475.200433105092</v>
+        <v>1642.313353140577</v>
       </c>
       <c r="AD3" t="n">
-        <v>1191926.26186437</v>
+        <v>1326949.45845324</v>
       </c>
       <c r="AE3" t="n">
-        <v>1630846.095558307</v>
+        <v>1815590.789934222</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.013915050619046e-06</v>
+        <v>1.543084029400563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.55324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1475200.433105092</v>
+        <v>1642313.353140577</v>
       </c>
     </row>
     <row r="4">
@@ -44319,28 +44319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1074.650578625607</v>
+        <v>1209.503093505333</v>
       </c>
       <c r="AB4" t="n">
-        <v>1470.384331913038</v>
+        <v>1654.895492044558</v>
       </c>
       <c r="AC4" t="n">
-        <v>1330.052914972628</v>
+        <v>1496.954588944235</v>
       </c>
       <c r="AD4" t="n">
-        <v>1074650.578625607</v>
+        <v>1209503.093505333</v>
       </c>
       <c r="AE4" t="n">
-        <v>1470384.331913038</v>
+        <v>1654895.492044558</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.069645987476868e-06</v>
+        <v>1.627901311239244e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.80555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1330052.914972628</v>
+        <v>1496954.588944235</v>
       </c>
     </row>
     <row r="5">
@@ -44425,28 +44425,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1003.146266084507</v>
+        <v>1130.141580842989</v>
       </c>
       <c r="AB5" t="n">
-        <v>1372.548976946672</v>
+        <v>1546.309569237101</v>
       </c>
       <c r="AC5" t="n">
-        <v>1241.554828971469</v>
+        <v>1398.731954208222</v>
       </c>
       <c r="AD5" t="n">
-        <v>1003146.266084507</v>
+        <v>1130141.580842989</v>
       </c>
       <c r="AE5" t="n">
-        <v>1372548.976946672</v>
+        <v>1546309.5692371</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.099980548045049e-06</v>
+        <v>1.674067679834982e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.93171296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>1241554.828971469</v>
+        <v>1398731.954208222</v>
       </c>
     </row>
     <row r="6">
@@ -44531,28 +44531,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>956.7276020665115</v>
+        <v>1083.552324624402</v>
       </c>
       <c r="AB6" t="n">
-        <v>1309.036912990325</v>
+        <v>1482.564093505906</v>
       </c>
       <c r="AC6" t="n">
-        <v>1184.104267259374</v>
+        <v>1341.070257213475</v>
       </c>
       <c r="AD6" t="n">
-        <v>956727.6020665115</v>
+        <v>1083552.324624402</v>
       </c>
       <c r="AE6" t="n">
-        <v>1309036.912990325</v>
+        <v>1482564.093505906</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.117029041387632e-06</v>
+        <v>1.700013894743439e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.45717592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>1184104.267259374</v>
+        <v>1341070.257213475</v>
       </c>
     </row>
     <row r="7">
@@ -44637,28 +44637,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>948.7781777488168</v>
+        <v>1075.602900306707</v>
       </c>
       <c r="AB7" t="n">
-        <v>1298.160159935005</v>
+        <v>1471.687340450587</v>
       </c>
       <c r="AC7" t="n">
-        <v>1174.265576250035</v>
+        <v>1331.231566204137</v>
       </c>
       <c r="AD7" t="n">
-        <v>948778.1777488168</v>
+        <v>1075602.900306707</v>
       </c>
       <c r="AE7" t="n">
-        <v>1298160.159935005</v>
+        <v>1471687.340450587</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.11985086097537e-06</v>
+        <v>1.704308440659322e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.38194444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>1174265.576250035</v>
+        <v>1331231.566204137</v>
       </c>
     </row>
     <row r="8">
@@ -44743,28 +44743,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>952.2797984545247</v>
+        <v>1079.104521012415</v>
       </c>
       <c r="AB8" t="n">
-        <v>1302.951231865158</v>
+        <v>1476.478412380739</v>
       </c>
       <c r="AC8" t="n">
-        <v>1178.599394999486</v>
+        <v>1335.565384953587</v>
       </c>
       <c r="AD8" t="n">
-        <v>952279.7984545247</v>
+        <v>1079104.521012415</v>
       </c>
       <c r="AE8" t="n">
-        <v>1302951.231865158</v>
+        <v>1476478.412380739</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.119733285159214e-06</v>
+        <v>1.70412950124616e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.38194444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>1178599.394999486</v>
+        <v>1335565.384953587</v>
       </c>
     </row>
   </sheetData>
@@ -45040,28 +45040,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2035.36583841959</v>
+        <v>2223.018243230166</v>
       </c>
       <c r="AB2" t="n">
-        <v>2784.87733412913</v>
+        <v>3041.631633030958</v>
       </c>
       <c r="AC2" t="n">
-        <v>2519.092549959733</v>
+        <v>2751.342578931178</v>
       </c>
       <c r="AD2" t="n">
-        <v>2035365.83841959</v>
+        <v>2223018.243230166</v>
       </c>
       <c r="AE2" t="n">
-        <v>2784877.33412913</v>
+        <v>3041631.633030958</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.487634454900095e-07</v>
+        <v>1.117836955064309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.74421296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>2519092.549959733</v>
+        <v>2751342.578931178</v>
       </c>
     </row>
     <row r="3">
@@ -45146,28 +45146,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1450.693478216235</v>
+        <v>1597.514866770205</v>
       </c>
       <c r="AB3" t="n">
-        <v>1984.902816974813</v>
+        <v>2185.790318096872</v>
       </c>
       <c r="AC3" t="n">
-        <v>1795.466477951337</v>
+        <v>1977.181557913685</v>
       </c>
       <c r="AD3" t="n">
-        <v>1450693.478216236</v>
+        <v>1597514.866770205</v>
       </c>
       <c r="AE3" t="n">
-        <v>1984902.816974813</v>
+        <v>2185790.318096872</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.298839402793383e-07</v>
+        <v>1.388233678641737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.22569444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1795466.477951337</v>
+        <v>1977181.557913685</v>
       </c>
     </row>
     <row r="4">
@@ -45252,28 +45252,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1287.899782666678</v>
+        <v>1426.640201413636</v>
       </c>
       <c r="AB4" t="n">
-        <v>1762.161300772938</v>
+        <v>1951.992062497818</v>
       </c>
       <c r="AC4" t="n">
-        <v>1593.983099436087</v>
+        <v>1765.696679691092</v>
       </c>
       <c r="AD4" t="n">
-        <v>1287899.782666678</v>
+        <v>1426640.201413636</v>
       </c>
       <c r="AE4" t="n">
-        <v>1762161.300772938</v>
+        <v>1951992.062497818</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.956533199497135e-07</v>
+        <v>1.48642148889079e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.89930555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1593983.099436087</v>
+        <v>1765696.679691091</v>
       </c>
     </row>
     <row r="5">
@@ -45358,28 +45358,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1205.87882749997</v>
+        <v>1344.533905392357</v>
       </c>
       <c r="AB5" t="n">
-        <v>1649.936611404688</v>
+        <v>1839.65060600737</v>
       </c>
       <c r="AC5" t="n">
-        <v>1492.468976912802</v>
+        <v>1664.076934135868</v>
       </c>
       <c r="AD5" t="n">
-        <v>1205878.82749997</v>
+        <v>1344533.905392357</v>
       </c>
       <c r="AE5" t="n">
-        <v>1649936.611404688</v>
+        <v>1839650.60600737</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.030745415815146e-06</v>
+        <v>1.538810854083917e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.77662037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1492468.976912802</v>
+        <v>1664076.934135868</v>
       </c>
     </row>
     <row r="6">
@@ -45464,28 +45464,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1159.991115821538</v>
+        <v>1290.480062069445</v>
       </c>
       <c r="AB6" t="n">
-        <v>1587.151019863295</v>
+        <v>1765.691752885697</v>
       </c>
       <c r="AC6" t="n">
-        <v>1435.675554107989</v>
+        <v>1597.176610154225</v>
       </c>
       <c r="AD6" t="n">
-        <v>1159991.115821538</v>
+        <v>1290480.062069445</v>
       </c>
       <c r="AE6" t="n">
-        <v>1587151.019863295</v>
+        <v>1765691.752885697</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.050498869778107e-06</v>
+        <v>1.56830099674908e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.18055555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1435675.554107988</v>
+        <v>1597176.610154225</v>
       </c>
     </row>
     <row r="7">
@@ -45570,28 +45570,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1110.748127081959</v>
+        <v>1241.322324675886</v>
       </c>
       <c r="AB7" t="n">
-        <v>1519.774590222463</v>
+        <v>1698.431967897515</v>
       </c>
       <c r="AC7" t="n">
-        <v>1374.729436348665</v>
+        <v>1536.336004645614</v>
       </c>
       <c r="AD7" t="n">
-        <v>1110748.127081959</v>
+        <v>1241322.324675886</v>
       </c>
       <c r="AE7" t="n">
-        <v>1519774.590222463</v>
+        <v>1698431.967897515</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.066063912299065e-06</v>
+        <v>1.591538215181515e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.72337962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>1374729.436348665</v>
+        <v>1536336.004645614</v>
       </c>
     </row>
     <row r="8">
@@ -45676,28 +45676,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1074.359366609854</v>
+        <v>1204.762972003189</v>
       </c>
       <c r="AB8" t="n">
-        <v>1469.985882785718</v>
+        <v>1648.409848685922</v>
       </c>
       <c r="AC8" t="n">
-        <v>1329.692493270793</v>
+        <v>1491.08792628509</v>
       </c>
       <c r="AD8" t="n">
-        <v>1074359.366609854</v>
+        <v>1204762.972003189</v>
       </c>
       <c r="AE8" t="n">
-        <v>1469985.882785718</v>
+        <v>1648409.848685922</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.076478340749451e-06</v>
+        <v>1.607086026787217e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.42824074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>1329692.493270793</v>
+        <v>1491087.92628509</v>
       </c>
     </row>
     <row r="9">
@@ -45782,28 +45782,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1051.151691320472</v>
+        <v>1173.559757269919</v>
       </c>
       <c r="AB9" t="n">
-        <v>1438.23211760441</v>
+        <v>1605.716233699183</v>
       </c>
       <c r="AC9" t="n">
-        <v>1300.9692628717</v>
+        <v>1452.46892999182</v>
       </c>
       <c r="AD9" t="n">
-        <v>1051151.691320472</v>
+        <v>1173559.757269919</v>
       </c>
       <c r="AE9" t="n">
-        <v>1438232.117604411</v>
+        <v>1605716.233699183</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.082364756830105e-06</v>
+        <v>1.615873920303484e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.26041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1300969.2628717</v>
+        <v>1452468.92999182</v>
       </c>
     </row>
     <row r="10">
@@ -45888,28 +45888,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1046.048312363679</v>
+        <v>1168.456378313126</v>
       </c>
       <c r="AB10" t="n">
-        <v>1431.249449370537</v>
+        <v>1598.733565465309</v>
       </c>
       <c r="AC10" t="n">
-        <v>1294.653010693831</v>
+        <v>1446.152677813951</v>
       </c>
       <c r="AD10" t="n">
-        <v>1046048.312363679</v>
+        <v>1168456.378313126</v>
       </c>
       <c r="AE10" t="n">
-        <v>1431249.449370537</v>
+        <v>1598733.565465309</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.084232561932619e-06</v>
+        <v>1.618662386515376e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.20833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1294653.010693831</v>
+        <v>1446152.677813951</v>
       </c>
     </row>
     <row r="11">
@@ -45994,28 +45994,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1050.648108636147</v>
+        <v>1173.056174585595</v>
       </c>
       <c r="AB11" t="n">
-        <v>1437.543093559218</v>
+        <v>1605.02720965399</v>
       </c>
       <c r="AC11" t="n">
-        <v>1300.345998314329</v>
+        <v>1451.845665434449</v>
       </c>
       <c r="AD11" t="n">
-        <v>1050648.108636147</v>
+        <v>1173056.174585595</v>
       </c>
       <c r="AE11" t="n">
-        <v>1437543.093559218</v>
+        <v>1605027.20965399</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.084062761468754e-06</v>
+        <v>1.618408889587022e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.21412037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>1300345.998314329</v>
+        <v>1451845.665434449</v>
       </c>
     </row>
   </sheetData>
